--- a/PythonResources/Data/Consumption/Sympheny/post_CE_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_CE_coo.xlsx
@@ -367,7 +367,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7.452280708129967</v>
+        <v>7.452280708129965</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -383,7 +383,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5.8581823382497</v>
+        <v>5.858182338249698</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -463,7 +463,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>196.7003717899197</v>
+        <v>196.7003717899196</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>5.837166214067294</v>
+        <v>5.837166214067293</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>9.730905103011541</v>
+        <v>9.730905103011539</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>51.3843796653246</v>
+        <v>51.38437966532459</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>56.97802143052664</v>
+        <v>56.97802143052663</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>71.88815705794191</v>
+        <v>71.8881570579419</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>13.04403216513264</v>
+        <v>13.04403216513263</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>0.6154611971014102</v>
+        <v>0.6154611971014101</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>4.379345291022473</v>
+        <v>4.379345291022472</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>77.94687325439564</v>
+        <v>77.94687325439563</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>3.950477442029084</v>
+        <v>3.950477442029083</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>4.561316908850805</v>
+        <v>4.561316908850804</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>0.1436130149331417</v>
+        <v>0.1436130149331416</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>9.199803818246721</v>
+        <v>9.199803818246719</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>8.215285295864007</v>
+        <v>8.215285295864005</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>2.933567243098324</v>
+        <v>2.933567243098323</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>0.3757891670393553</v>
+        <v>0.3757891670393552</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>0.9350305467943598</v>
+        <v>0.9350305467943596</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2079,7 +2079,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>3.804266938480286</v>
+        <v>3.804266938480285</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>74.36281960129445</v>
+        <v>74.36281960129443</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>5.859789539825717</v>
+        <v>5.859789539825716</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>4.40595233140942</v>
+        <v>4.405952331409419</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>64.43594668686123</v>
+        <v>64.4359466868612</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>5.706322304288626</v>
+        <v>5.706322304288625</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>5.252564811194845</v>
+        <v>5.252564811194844</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>182.0690932557907</v>
+        <v>182.0690932557906</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2663,7 +2663,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>8.801231015590794</v>
+        <v>8.801231015590792</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>6.949567163383002</v>
+        <v>6.949567163383001</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2687,7 +2687,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>6.256524493998199</v>
+        <v>6.256524493998198</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>11.63288925255749</v>
+        <v>11.63288925255748</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>43.11717976567213</v>
+        <v>43.11717976567212</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>4.882801184710368</v>
+        <v>4.882801184710367</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>50.88583652145779</v>
+        <v>50.88583652145778</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>6.064299199740223</v>
+        <v>6.064299199740222</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3279,7 +3279,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>3.569873997037639</v>
+        <v>3.569873997037638</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>3.31374588161923</v>
+        <v>3.313745881619229</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>2.564715184772498</v>
+        <v>2.564715184772497</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4055,7 +4055,7 @@
         <v>464</v>
       </c>
       <c r="B464">
-        <v>1.493790117761805</v>
+        <v>1.493790117761804</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>3.090125704029903</v>
+        <v>3.090125704029902</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>26.42517808461665</v>
+        <v>26.42517808461664</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>5.287116128226786</v>
+        <v>5.287116128226785</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4143,7 +4143,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>3.820216157475276</v>
+        <v>3.820216157475275</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>4.631964906501548</v>
+        <v>4.631964906501547</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>52.7848723763548</v>
+        <v>52.78487237635478</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>548</v>
       </c>
       <c r="B548">
-        <v>2.016040311335226</v>
+        <v>2.016040311335225</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>3.226240291289167</v>
+        <v>3.226240291289166</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>1.308006085327047</v>
+        <v>1.308006085327046</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>0.5793418913984235</v>
+        <v>0.5793418913984234</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>1.414870717572716</v>
+        <v>1.414870717572715</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>5.625741836066612</v>
+        <v>5.625741836066611</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5327,7 +5327,7 @@
         <v>623</v>
       </c>
       <c r="B623">
-        <v>6.476871126699885</v>
+        <v>6.476871126699884</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>0.9383841586897613</v>
+        <v>0.9383841586897611</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5423,7 +5423,7 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>7.082104730694093</v>
+        <v>7.082104730694091</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>642</v>
       </c>
       <c r="B642">
-        <v>0.680235494302406</v>
+        <v>0.6802354943024059</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>1.497779488661375</v>
+        <v>1.497779488661374</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5551,7 +5551,7 @@
         <v>651</v>
       </c>
       <c r="B651">
-        <v>0.9499382206250501</v>
+        <v>0.94993822062505</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>0.9191759897448581</v>
+        <v>0.9191759897448579</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>47.75030757805508</v>
+        <v>47.75030757805507</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5655,7 +5655,7 @@
         <v>664</v>
       </c>
       <c r="B664">
-        <v>51.97099358701954</v>
+        <v>51.97099358701953</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>4.399566313476989</v>
+        <v>4.399566313476988</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>3.173108856548175</v>
+        <v>3.173108856548174</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5775,7 +5775,7 @@
         <v>679</v>
       </c>
       <c r="B679">
-        <v>1.451195905680362</v>
+        <v>1.451195905680361</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5855,7 +5855,7 @@
         <v>689</v>
       </c>
       <c r="B689">
-        <v>4.587115659313125</v>
+        <v>4.587115659313124</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>2.298119480373326</v>
+        <v>2.298119480373325</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6167,7 +6167,7 @@
         <v>728</v>
       </c>
       <c r="B728">
-        <v>1.910971348789119</v>
+        <v>1.910971348789118</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6279,7 +6279,7 @@
         <v>742</v>
       </c>
       <c r="B742">
-        <v>6.102546142569683</v>
+        <v>6.102546142569682</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>1.104083769081123</v>
+        <v>1.104083769081122</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6479,7 +6479,7 @@
         <v>767</v>
       </c>
       <c r="B767">
-        <v>6.079755766319222</v>
+        <v>6.079755766319221</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>2.841918360959187</v>
+        <v>2.841918360959186</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>3.139206105724791</v>
+        <v>3.13920610572479</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -7023,7 +7023,7 @@
         <v>835</v>
       </c>
       <c r="B835">
-        <v>0.8334471425866803</v>
+        <v>0.8334471425866802</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>838</v>
       </c>
       <c r="B838">
-        <v>1.907714948557241</v>
+        <v>1.90771494855724</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>6.110616146690261</v>
+        <v>6.110616146690259</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>4.377655150342513</v>
+        <v>4.377655150342512</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>1.855046185064983</v>
+        <v>1.855046185064982</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>6.410714442716628</v>
+        <v>6.410714442716627</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>0.1879083578584947</v>
+        <v>0.1879083578584946</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7983,7 +7983,7 @@
         <v>955</v>
       </c>
       <c r="B955">
-        <v>0.6260609904277137</v>
+        <v>0.6260609904277136</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>6.378197917906114</v>
+        <v>6.378197917906112</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>9.258268266678234</v>
+        <v>9.258268266678233</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>2.065429589389891</v>
+        <v>2.06542958938989</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8231,7 +8231,7 @@
         <v>986</v>
       </c>
       <c r="B986">
-        <v>5.914069226896185</v>
+        <v>5.914069226896184</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>4.204528123389942</v>
+        <v>4.204528123389941</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8295,7 +8295,7 @@
         <v>994</v>
       </c>
       <c r="B994">
-        <v>3.330362862975809</v>
+        <v>3.330362862975808</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8311,7 +8311,7 @@
         <v>996</v>
       </c>
       <c r="B996">
-        <v>5.898034138086868</v>
+        <v>5.898034138086867</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>57.86072209187074</v>
+        <v>57.86072209187073</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>81.6797190738252</v>
+        <v>81.67971907382518</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>1001</v>
       </c>
       <c r="B1001">
-        <v>50.65649084944297</v>
+        <v>50.65649084944296</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>3.214470265305489</v>
+        <v>3.214470265305488</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8607,7 +8607,7 @@
         <v>1033</v>
       </c>
       <c r="B1033">
-        <v>2.806595094811412</v>
+        <v>2.806595094811411</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -8719,7 +8719,7 @@
         <v>1047</v>
       </c>
       <c r="B1047">
-        <v>39.68438916082625</v>
+        <v>39.68438916082624</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>3.075329807493358</v>
+        <v>3.075329807493357</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>4.622327851537246</v>
+        <v>4.622327851537245</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9007,7 +9007,7 @@
         <v>1083</v>
       </c>
       <c r="B1083">
-        <v>4.092971218665578</v>
+        <v>4.092971218665577</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>0.6649802382198631</v>
+        <v>0.6649802382198629</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9175,7 +9175,7 @@
         <v>1104</v>
       </c>
       <c r="B1104">
-        <v>5.217815378140769</v>
+        <v>5.217815378140768</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>5.284690379239786</v>
+        <v>5.284690379239785</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>3.01989864431199</v>
+        <v>3.019898644311989</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9695,7 +9695,7 @@
         <v>1169</v>
       </c>
       <c r="B1169">
-        <v>7.010921585326755</v>
+        <v>7.010921585326754</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>4.007919658677746</v>
+        <v>4.007919658677745</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9831,7 +9831,7 @@
         <v>1186</v>
       </c>
       <c r="B1186">
-        <v>0.2528485039602689</v>
+        <v>0.2528485039602688</v>
       </c>
     </row>
     <row r="1187" spans="1:2">
@@ -9959,7 +9959,7 @@
         <v>1202</v>
       </c>
       <c r="B1202">
-        <v>3.659137867064151</v>
+        <v>3.65913786706415</v>
       </c>
     </row>
     <row r="1203" spans="1:2">
@@ -10095,7 +10095,7 @@
         <v>1219</v>
       </c>
       <c r="B1219">
-        <v>0.4621437208650754</v>
+        <v>0.4621437208650753</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>7.703662977683813</v>
+        <v>7.703662977683812</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10255,7 +10255,7 @@
         <v>1239</v>
       </c>
       <c r="B1239">
-        <v>8.503001926649009</v>
+        <v>8.503001926649008</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>6.110976624067814</v>
+        <v>6.110976624067813</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>7.882479685780956</v>
+        <v>7.882479685780955</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>7.013558931603668</v>
+        <v>7.013558931603667</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10495,7 +10495,7 @@
         <v>1269</v>
       </c>
       <c r="B1269">
-        <v>17.05140348789705</v>
+        <v>17.05140348789704</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>6.626709263565234</v>
+        <v>6.626709263565232</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>6.44310494698052</v>
+        <v>6.443104946980519</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10607,7 +10607,7 @@
         <v>1283</v>
       </c>
       <c r="B1283">
-        <v>0.6851367850458745</v>
+        <v>0.6851367850458744</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>1289</v>
       </c>
       <c r="B1289">
-        <v>0.4871995362443884</v>
+        <v>0.4871995362443883</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>17.10735954130866</v>
+        <v>17.10735954130865</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10783,7 +10783,7 @@
         <v>1305</v>
       </c>
       <c r="B1305">
-        <v>8.55913089197343</v>
+        <v>8.559130891973428</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>64.42642187810473</v>
+        <v>64.42642187810472</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10855,7 +10855,7 @@
         <v>1314</v>
       </c>
       <c r="B1314">
-        <v>65.81018609424814</v>
+        <v>65.81018609424812</v>
       </c>
     </row>
     <row r="1315" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>143.3259225436691</v>
+        <v>143.325922543669</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>96.23403715320173</v>
+        <v>96.23403715320171</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10943,7 +10943,7 @@
         <v>1325</v>
       </c>
       <c r="B1325">
-        <v>6.20186615914578</v>
+        <v>6.201866159145779</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>169.8222406922104</v>
+        <v>169.8222406922103</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11135,7 +11135,7 @@
         <v>1349</v>
       </c>
       <c r="B1349">
-        <v>8.574675379864027</v>
+        <v>8.574675379864026</v>
       </c>
     </row>
     <row r="1350" spans="1:2">
@@ -11207,7 +11207,7 @@
         <v>1358</v>
       </c>
       <c r="B1358">
-        <v>5.734116575453191</v>
+        <v>5.734116575453189</v>
       </c>
     </row>
     <row r="1359" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>6.663192797955069</v>
+        <v>6.663192797955068</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>6.966978513789873</v>
+        <v>6.966978513789872</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>31.78257528555377</v>
+        <v>31.78257528555376</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11263,7 +11263,7 @@
         <v>1365</v>
       </c>
       <c r="B1365">
-        <v>40.41311879751781</v>
+        <v>40.4131187975178</v>
       </c>
     </row>
     <row r="1366" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>7.592166445593413</v>
+        <v>7.592166445593412</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11351,7 +11351,7 @@
         <v>1376</v>
       </c>
       <c r="B1376">
-        <v>7.324389782136852</v>
+        <v>7.324389782136851</v>
       </c>
     </row>
     <row r="1377" spans="1:2">
@@ -11471,7 +11471,7 @@
         <v>1391</v>
       </c>
       <c r="B1391">
-        <v>88.98316658568137</v>
+        <v>88.98316658568136</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>84.64993543645021</v>
+        <v>84.64993543645019</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11703,7 +11703,7 @@
         <v>1420</v>
       </c>
       <c r="B1420">
-        <v>4.227062648623651</v>
+        <v>4.22706264862365</v>
       </c>
     </row>
     <row r="1421" spans="1:2">
@@ -11735,7 +11735,7 @@
         <v>1424</v>
       </c>
       <c r="B1424">
-        <v>4.168688173001007</v>
+        <v>4.168688173001006</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -11839,7 +11839,7 @@
         <v>1437</v>
       </c>
       <c r="B1437">
-        <v>7.990780571265793</v>
+        <v>7.990780571265792</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>3.355541182049282</v>
+        <v>3.355541182049281</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11903,7 +11903,7 @@
         <v>1445</v>
       </c>
       <c r="B1445">
-        <v>2.896481740795079</v>
+        <v>2.896481740795078</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>6.977564532777359</v>
+        <v>6.977564532777358</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>44.87808537862728</v>
+        <v>44.87808537862726</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>13.24491770858306</v>
+        <v>13.24491770858305</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12239,7 +12239,7 @@
         <v>1487</v>
       </c>
       <c r="B1487">
-        <v>5.636409914944924</v>
+        <v>5.636409914944922</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -12367,7 +12367,7 @@
         <v>1503</v>
       </c>
       <c r="B1503">
-        <v>76.31751550785401</v>
+        <v>76.317515507854</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -12375,7 +12375,7 @@
         <v>1504</v>
       </c>
       <c r="B1504">
-        <v>79.66608658139081</v>
+        <v>79.6660865813908</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
@@ -12471,7 +12471,7 @@
         <v>1516</v>
       </c>
       <c r="B1516">
-        <v>3.431901427314573</v>
+        <v>3.431901427314572</v>
       </c>
     </row>
     <row r="1517" spans="1:2">
@@ -12575,7 +12575,7 @@
         <v>1529</v>
       </c>
       <c r="B1529">
-        <v>108.7541491532299</v>
+        <v>108.7541491532298</v>
       </c>
     </row>
     <row r="1530" spans="1:2">
@@ -12623,7 +12623,7 @@
         <v>1535</v>
       </c>
       <c r="B1535">
-        <v>9.826748124784961</v>
+        <v>9.82674812478496</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -12679,7 +12679,7 @@
         <v>1542</v>
       </c>
       <c r="B1542">
-        <v>3.429654744732195</v>
+        <v>3.429654744732194</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -12687,7 +12687,7 @@
         <v>1543</v>
       </c>
       <c r="B1543">
-        <v>3.929195795485652</v>
+        <v>3.929195795485651</v>
       </c>
     </row>
     <row r="1544" spans="1:2">
@@ -12727,7 +12727,7 @@
         <v>1548</v>
       </c>
       <c r="B1548">
-        <v>31.37071727964429</v>
+        <v>31.37071727964428</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>125.9547814833029</v>
+        <v>125.9547814833028</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -13015,7 +13015,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>82.5107513110533</v>
+        <v>82.51075131105328</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13031,7 +13031,7 @@
         <v>1586</v>
       </c>
       <c r="B1586">
-        <v>35.05897468510983</v>
+        <v>35.05897468510982</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>8.482973451866894</v>
+        <v>8.482973451866892</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>7.05320440942962</v>
+        <v>7.053204409429619</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13399,7 +13399,7 @@
         <v>1632</v>
       </c>
       <c r="B1632">
-        <v>3.785871162454552</v>
+        <v>3.785871162454551</v>
       </c>
     </row>
     <row r="1633" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>2.142312658734602</v>
+        <v>2.142312658734601</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13559,7 +13559,7 @@
         <v>1652</v>
       </c>
       <c r="B1652">
-        <v>23.72727160827422</v>
+        <v>23.72727160827421</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -13647,7 +13647,7 @@
         <v>1663</v>
       </c>
       <c r="B1663">
-        <v>3.618718681696131</v>
+        <v>3.61871868169613</v>
       </c>
     </row>
     <row r="1664" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>3.497849737789342</v>
+        <v>3.497849737789341</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13903,7 +13903,7 @@
         <v>1695</v>
       </c>
       <c r="B1695">
-        <v>81.27945437206307</v>
+        <v>81.27945437206306</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>102.6981878245396</v>
+        <v>102.6981878245395</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>4.32649403219444</v>
+        <v>4.326494032194439</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14167,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="B1728">
-        <v>5.776713278638463</v>
+        <v>5.776713278638462</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>4.016564961247218</v>
+        <v>4.016564961247217</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14287,7 +14287,7 @@
         <v>1743</v>
       </c>
       <c r="B1743">
-        <v>86.13058893797505</v>
+        <v>86.13058893797503</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -14327,7 +14327,7 @@
         <v>1748</v>
       </c>
       <c r="B1748">
-        <v>49.25331360769864</v>
+        <v>49.25331360769862</v>
       </c>
     </row>
     <row r="1749" spans="1:2">
@@ -14343,7 +14343,7 @@
         <v>1750</v>
       </c>
       <c r="B1750">
-        <v>15.55686134985004</v>
+        <v>15.55686134985003</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>4.548013828263889</v>
+        <v>4.548013828263888</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>3.676844046935913</v>
+        <v>3.676844046935912</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14471,7 +14471,7 @@
         <v>1766</v>
       </c>
       <c r="B1766">
-        <v>70.08407035815041</v>
+        <v>70.0840703581504</v>
       </c>
     </row>
     <row r="1767" spans="1:2">
@@ -14567,7 +14567,7 @@
         <v>1778</v>
       </c>
       <c r="B1778">
-        <v>4.24356137581613</v>
+        <v>4.243561375816129</v>
       </c>
     </row>
     <row r="1779" spans="1:2">
@@ -14599,7 +14599,7 @@
         <v>1782</v>
       </c>
       <c r="B1782">
-        <v>4.323947831010551</v>
+        <v>4.32394783101055</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14623,7 +14623,7 @@
         <v>1785</v>
       </c>
       <c r="B1785">
-        <v>0.7233969453791782</v>
+        <v>0.7233969453791781</v>
       </c>
     </row>
     <row r="1786" spans="1:2">
@@ -14703,7 +14703,7 @@
         <v>1795</v>
       </c>
       <c r="B1795">
-        <v>20.16764249553507</v>
+        <v>20.16764249553506</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14903,7 +14903,7 @@
         <v>1820</v>
       </c>
       <c r="B1820">
-        <v>9.07830682310408</v>
+        <v>9.078306823104079</v>
       </c>
     </row>
     <row r="1821" spans="1:2">
@@ -14927,7 +14927,7 @@
         <v>1823</v>
       </c>
       <c r="B1823">
-        <v>4.731409478269076</v>
+        <v>4.731409478269075</v>
       </c>
     </row>
     <row r="1824" spans="1:2">
@@ -15047,7 +15047,7 @@
         <v>1838</v>
       </c>
       <c r="B1838">
-        <v>98.35135817911447</v>
+        <v>98.35135817911446</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
@@ -15103,7 +15103,7 @@
         <v>1845</v>
       </c>
       <c r="B1845">
-        <v>56.76284867394148</v>
+        <v>56.76284867394147</v>
       </c>
     </row>
     <row r="1846" spans="1:2">
@@ -15127,7 +15127,7 @@
         <v>1848</v>
       </c>
       <c r="B1848">
-        <v>6.932792656343142</v>
+        <v>6.932792656343141</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>167.9328996272723</v>
+        <v>167.9328996272722</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15335,7 +15335,7 @@
         <v>1874</v>
       </c>
       <c r="B1874">
-        <v>7.738960746651224</v>
+        <v>7.738960746651223</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>6.979713622703862</v>
+        <v>6.979713622703861</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15447,7 +15447,7 @@
         <v>1888</v>
       </c>
       <c r="B1888">
-        <v>21.42185758974861</v>
+        <v>21.4218575897486</v>
       </c>
     </row>
     <row r="1889" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>22.17831203976857</v>
+        <v>22.17831203976856</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15519,7 +15519,7 @@
         <v>1897</v>
       </c>
       <c r="B1897">
-        <v>5.88377916276638</v>
+        <v>5.883779162766379</v>
       </c>
     </row>
     <row r="1898" spans="1:2">
@@ -15575,7 +15575,7 @@
         <v>1904</v>
       </c>
       <c r="B1904">
-        <v>4.699687175973334</v>
+        <v>4.699687175973333</v>
       </c>
     </row>
     <row r="1905" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>25.12404231711342</v>
+        <v>25.12404231711341</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15647,7 +15647,7 @@
         <v>1913</v>
       </c>
       <c r="B1913">
-        <v>77.18125447299673</v>
+        <v>77.18125447299671</v>
       </c>
     </row>
     <row r="1914" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>3.966466518685331</v>
+        <v>3.96646651868533</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15879,7 +15879,7 @@
         <v>1942</v>
       </c>
       <c r="B1942">
-        <v>65.24036807377888</v>
+        <v>65.24036807377887</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>6.5979669075906</v>
+        <v>6.597966907590599</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15935,7 +15935,7 @@
         <v>1949</v>
       </c>
       <c r="B1949">
-        <v>6.131784081670693</v>
+        <v>6.131784081670692</v>
       </c>
     </row>
     <row r="1950" spans="1:2">
@@ -16271,7 +16271,7 @@
         <v>1991</v>
       </c>
       <c r="B1991">
-        <v>5.365630445626238</v>
+        <v>5.365630445626237</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>5.355167516474989</v>
+        <v>5.355167516474988</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>4.678374756970841</v>
+        <v>4.67837475697084</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16671,7 +16671,7 @@
         <v>2041</v>
       </c>
       <c r="B2041">
-        <v>5.091327969351804</v>
+        <v>5.091327969351803</v>
       </c>
     </row>
     <row r="2042" spans="1:2">
@@ -16695,7 +16695,7 @@
         <v>2044</v>
       </c>
       <c r="B2044">
-        <v>3.828227547388122</v>
+        <v>3.828227547388121</v>
       </c>
     </row>
     <row r="2045" spans="1:2">
@@ -16703,7 +16703,7 @@
         <v>2045</v>
       </c>
       <c r="B2045">
-        <v>4.416584655621016</v>
+        <v>4.416584655621015</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -16839,7 +16839,7 @@
         <v>2062</v>
       </c>
       <c r="B2062">
-        <v>9.36383948850898</v>
+        <v>9.363839488508978</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
@@ -16847,7 +16847,7 @@
         <v>2063</v>
       </c>
       <c r="B2063">
-        <v>6.817685489056435</v>
+        <v>6.817685489056434</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -16871,7 +16871,7 @@
         <v>2066</v>
       </c>
       <c r="B2066">
-        <v>4.180644006023196</v>
+        <v>4.180644006023195</v>
       </c>
     </row>
     <row r="2067" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>4.158579273664461</v>
+        <v>4.15857927366446</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17367,7 +17367,7 @@
         <v>2128</v>
       </c>
       <c r="B2128">
-        <v>279.9053995994305</v>
+        <v>279.9053995994304</v>
       </c>
     </row>
     <row r="2129" spans="1:2">
@@ -17399,7 +17399,7 @@
         <v>2132</v>
       </c>
       <c r="B2132">
-        <v>176.9268395043349</v>
+        <v>176.9268395043348</v>
       </c>
     </row>
     <row r="2133" spans="1:2">
@@ -17487,7 +17487,7 @@
         <v>2143</v>
       </c>
       <c r="B2143">
-        <v>4.887896517788533</v>
+        <v>4.887896517788532</v>
       </c>
     </row>
     <row r="2144" spans="1:2">
@@ -17511,7 +17511,7 @@
         <v>2146</v>
       </c>
       <c r="B2146">
-        <v>3.560178415786917</v>
+        <v>3.560178415786916</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -17543,7 +17543,7 @@
         <v>2150</v>
       </c>
       <c r="B2150">
-        <v>2.432463654795141</v>
+        <v>2.43246365479514</v>
       </c>
     </row>
     <row r="2151" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>3.675299855633207</v>
+        <v>3.675299855633206</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17623,7 +17623,7 @@
         <v>2160</v>
       </c>
       <c r="B2160">
-        <v>6.603739527839111</v>
+        <v>6.60373952783911</v>
       </c>
     </row>
     <row r="2161" spans="1:2">
@@ -17663,7 +17663,7 @@
         <v>2165</v>
       </c>
       <c r="B2165">
-        <v>3.865598207811985</v>
+        <v>3.865598207811984</v>
       </c>
     </row>
     <row r="2166" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>45.95044696264107</v>
+        <v>45.95044696264106</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17727,7 +17727,7 @@
         <v>2173</v>
       </c>
       <c r="B2173">
-        <v>49.55442651566085</v>
+        <v>49.55442651566084</v>
       </c>
     </row>
     <row r="2174" spans="1:2">
@@ -17807,7 +17807,7 @@
         <v>2183</v>
       </c>
       <c r="B2183">
-        <v>12.03910622711482</v>
+        <v>12.03910622711481</v>
       </c>
     </row>
     <row r="2184" spans="1:2">
@@ -17847,7 +17847,7 @@
         <v>2188</v>
       </c>
       <c r="B2188">
-        <v>5.103609111226907</v>
+        <v>5.103609111226906</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>6.42438855123849</v>
+        <v>6.424388551238488</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -17959,7 +17959,7 @@
         <v>2202</v>
       </c>
       <c r="B2202">
-        <v>440.7310715673616</v>
+        <v>440.7310715673615</v>
       </c>
     </row>
     <row r="2203" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>8.002729663654094</v>
+        <v>8.002729663654092</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18175,7 +18175,7 @@
         <v>2229</v>
       </c>
       <c r="B2229">
-        <v>199.2968346569399</v>
+        <v>199.2968346569398</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
@@ -18295,7 +18295,7 @@
         <v>2244</v>
       </c>
       <c r="B2244">
-        <v>260.8448007146245</v>
+        <v>260.8448007146244</v>
       </c>
     </row>
     <row r="2245" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>386.2049410604835</v>
+        <v>386.2049410604834</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18655,7 +18655,7 @@
         <v>2289</v>
       </c>
       <c r="B2289">
-        <v>8.504681223700539</v>
+        <v>8.504681223700537</v>
       </c>
     </row>
     <row r="2290" spans="1:2">
@@ -18719,7 +18719,7 @@
         <v>2297</v>
       </c>
       <c r="B2297">
-        <v>63.66001473561183</v>
+        <v>63.66001473561182</v>
       </c>
     </row>
     <row r="2298" spans="1:2">
@@ -18767,7 +18767,7 @@
         <v>2303</v>
       </c>
       <c r="B2303">
-        <v>113.595536176396</v>
+        <v>113.5955361763959</v>
       </c>
     </row>
     <row r="2304" spans="1:2">
@@ -18791,7 +18791,7 @@
         <v>2306</v>
       </c>
       <c r="B2306">
-        <v>42.96125425026274</v>
+        <v>42.96125425026273</v>
       </c>
     </row>
     <row r="2307" spans="1:2">
@@ -18895,7 +18895,7 @@
         <v>2319</v>
       </c>
       <c r="B2319">
-        <v>327.6746981807909</v>
+        <v>327.6746981807908</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
@@ -18903,7 +18903,7 @@
         <v>2320</v>
       </c>
       <c r="B2320">
-        <v>339.2093295062164</v>
+        <v>339.2093295062163</v>
       </c>
     </row>
     <row r="2321" spans="1:2">
@@ -19023,7 +19023,7 @@
         <v>2335</v>
       </c>
       <c r="B2335">
-        <v>13.02568591811244</v>
+        <v>13.02568591811243</v>
       </c>
     </row>
     <row r="2336" spans="1:2">
@@ -19183,7 +19183,7 @@
         <v>2355</v>
       </c>
       <c r="B2355">
-        <v>6.971853457446966</v>
+        <v>6.971853457446965</v>
       </c>
     </row>
     <row r="2356" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>55.36907608182779</v>
+        <v>55.36907608182778</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>53.97711466873302</v>
+        <v>53.97711466873301</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19327,7 +19327,7 @@
         <v>2373</v>
       </c>
       <c r="B2373">
-        <v>22.15809013810094</v>
+        <v>22.15809013810093</v>
       </c>
     </row>
     <row r="2374" spans="1:2">
@@ -19359,7 +19359,7 @@
         <v>2377</v>
       </c>
       <c r="B2377">
-        <v>4.95346002598954</v>
+        <v>4.953460025989539</v>
       </c>
     </row>
     <row r="2378" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>85.59588082793742</v>
+        <v>85.59588082793741</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19519,7 +19519,7 @@
         <v>2397</v>
       </c>
       <c r="B2397">
-        <v>44.56710476879334</v>
+        <v>44.56710476879333</v>
       </c>
     </row>
     <row r="2398" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>4.751188256526253</v>
+        <v>4.751188256526252</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>29.01273159206153</v>
+        <v>29.01273159206152</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -19831,7 +19831,7 @@
         <v>2436</v>
       </c>
       <c r="B2436">
-        <v>54.71565954758039</v>
+        <v>54.71565954758037</v>
       </c>
     </row>
     <row r="2437" spans="1:2">
@@ -20135,7 +20135,7 @@
         <v>2474</v>
       </c>
       <c r="B2474">
-        <v>7.890577238579168</v>
+        <v>7.890577238579167</v>
       </c>
     </row>
     <row r="2475" spans="1:2">
@@ -20215,7 +20215,7 @@
         <v>2484</v>
       </c>
       <c r="B2484">
-        <v>69.18000481808788</v>
+        <v>69.18000481808787</v>
       </c>
     </row>
     <row r="2485" spans="1:2">
@@ -20255,7 +20255,7 @@
         <v>2489</v>
       </c>
       <c r="B2489">
-        <v>170.2148093484973</v>
+        <v>170.2148093484972</v>
       </c>
     </row>
     <row r="2490" spans="1:2">
@@ -20271,7 +20271,7 @@
         <v>2491</v>
       </c>
       <c r="B2491">
-        <v>233.5443249431003</v>
+        <v>233.5443249431002</v>
       </c>
     </row>
     <row r="2492" spans="1:2">
@@ -20487,7 +20487,7 @@
         <v>2518</v>
       </c>
       <c r="B2518">
-        <v>72.45929389808514</v>
+        <v>72.45929389808512</v>
       </c>
     </row>
     <row r="2519" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>36.25764402536589</v>
+        <v>36.25764402536588</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>14.42689665318736</v>
+        <v>14.42689665318735</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>7.183171157589574</v>
+        <v>7.183171157589573</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20887,7 +20887,7 @@
         <v>2568</v>
       </c>
       <c r="B2568">
-        <v>7.48821297589608</v>
+        <v>7.488212975896079</v>
       </c>
     </row>
     <row r="2569" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>2.767201658078709</v>
+        <v>2.767201658078708</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21047,7 +21047,7 @@
         <v>2588</v>
       </c>
       <c r="B2588">
-        <v>57.4503054093294</v>
+        <v>57.45030540932939</v>
       </c>
     </row>
     <row r="2589" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>22.22763296486489</v>
+        <v>22.22763296486488</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>6.765762093136805</v>
+        <v>6.765762093136804</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>4.993014651793507</v>
+        <v>4.993014651793506</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>5.555886888646487</v>
+        <v>5.555886888646486</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21175,7 +21175,7 @@
         <v>2604</v>
       </c>
       <c r="B2604">
-        <v>50.86605422634814</v>
+        <v>50.86605422634813</v>
       </c>
     </row>
     <row r="2605" spans="1:2">
@@ -21287,7 +21287,7 @@
         <v>2618</v>
       </c>
       <c r="B2618">
-        <v>7.309442866094084</v>
+        <v>7.309442866094083</v>
       </c>
     </row>
     <row r="2619" spans="1:2">
@@ -21295,7 +21295,7 @@
         <v>2619</v>
       </c>
       <c r="B2619">
-        <v>5.905527085332323</v>
+        <v>5.905527085332322</v>
       </c>
     </row>
     <row r="2620" spans="1:2">
@@ -21351,7 +21351,7 @@
         <v>2626</v>
       </c>
       <c r="B2626">
-        <v>94.0064334954407</v>
+        <v>94.00643349544069</v>
       </c>
     </row>
     <row r="2627" spans="1:2">
@@ -21415,7 +21415,7 @@
         <v>2634</v>
       </c>
       <c r="B2634">
-        <v>529.7967229968742</v>
+        <v>529.7967229968741</v>
       </c>
     </row>
     <row r="2635" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>24.11104227198048</v>
+        <v>24.11104227198047</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21519,7 +21519,7 @@
         <v>2647</v>
       </c>
       <c r="B2647">
-        <v>5.641740290996096</v>
+        <v>5.641740290996095</v>
       </c>
     </row>
     <row r="2648" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>7.61726123942087</v>
+        <v>7.617261239420868</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>64.23516371827434</v>
+        <v>64.23516371827432</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>3.385170957128983</v>
+        <v>3.385170957128982</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -22015,7 +22015,7 @@
         <v>2709</v>
       </c>
       <c r="B2709">
-        <v>17.29132902440755</v>
+        <v>17.29132902440754</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -22047,7 +22047,7 @@
         <v>2713</v>
       </c>
       <c r="B2713">
-        <v>6.9663639438218</v>
+        <v>6.966363943821799</v>
       </c>
     </row>
     <row r="2714" spans="1:2">
@@ -22191,7 +22191,7 @@
         <v>2731</v>
       </c>
       <c r="B2731">
-        <v>157.6817436085603</v>
+        <v>157.6817436085602</v>
       </c>
     </row>
     <row r="2732" spans="1:2">
@@ -22231,7 +22231,7 @@
         <v>2736</v>
       </c>
       <c r="B2736">
-        <v>14.98395142992291</v>
+        <v>14.9839514299229</v>
       </c>
     </row>
     <row r="2737" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>7.675495334015994</v>
+        <v>7.675495334015993</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>6.287210790172274</v>
+        <v>6.287210790172272</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>135.3532766221336</v>
+        <v>135.3532766221335</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22455,7 +22455,7 @@
         <v>2764</v>
       </c>
       <c r="B2764">
-        <v>9.145947032685042</v>
+        <v>9.14594703268504</v>
       </c>
     </row>
     <row r="2765" spans="1:2">
@@ -22479,7 +22479,7 @@
         <v>2767</v>
       </c>
       <c r="B2767">
-        <v>21.0772441475179</v>
+        <v>21.07724414751789</v>
       </c>
     </row>
     <row r="2768" spans="1:2">
@@ -22543,7 +22543,7 @@
         <v>2775</v>
       </c>
       <c r="B2775">
-        <v>340.665511576013</v>
+        <v>340.6655115760129</v>
       </c>
     </row>
     <row r="2776" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>380.422034018514</v>
+        <v>380.4220340185139</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22591,7 +22591,7 @@
         <v>2781</v>
       </c>
       <c r="B2781">
-        <v>191.4771132033779</v>
+        <v>191.4771132033778</v>
       </c>
     </row>
     <row r="2782" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>76.48793631683559</v>
+        <v>76.48793631683557</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22751,7 +22751,7 @@
         <v>2801</v>
       </c>
       <c r="B2801">
-        <v>46.23860613069445</v>
+        <v>46.23860613069444</v>
       </c>
     </row>
     <row r="2802" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>37.81267309508222</v>
+        <v>37.81267309508221</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22863,7 +22863,7 @@
         <v>2815</v>
       </c>
       <c r="B2815">
-        <v>9.236438577292505</v>
+        <v>9.236438577292503</v>
       </c>
     </row>
     <row r="2816" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>9.105954558749314</v>
+        <v>9.105954558749312</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>8.603321022395903</v>
+        <v>8.603321022395901</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -22919,7 +22919,7 @@
         <v>2822</v>
       </c>
       <c r="B2822">
-        <v>28.2726041296054</v>
+        <v>28.27260412960539</v>
       </c>
     </row>
     <row r="2823" spans="1:2">
@@ -22967,7 +22967,7 @@
         <v>2828</v>
       </c>
       <c r="B2828">
-        <v>101.747289532499</v>
+        <v>101.7472895324989</v>
       </c>
     </row>
     <row r="2829" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>7.094147019672688</v>
+        <v>7.094147019672687</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>11.39057811779229</v>
+        <v>11.39057811779228</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>160.1564354590167</v>
+        <v>160.1564354590166</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>689.4242971130745</v>
+        <v>689.4242971130744</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23391,7 +23391,7 @@
         <v>2881</v>
       </c>
       <c r="B2881">
-        <v>62.54259054869347</v>
+        <v>62.54259054869345</v>
       </c>
     </row>
     <row r="2882" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>17.81468649311782</v>
+        <v>17.81468649311781</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -23527,7 +23527,7 @@
         <v>2898</v>
       </c>
       <c r="B2898">
-        <v>722.2886972464804</v>
+        <v>722.2886972464803</v>
       </c>
     </row>
     <row r="2899" spans="1:2">
@@ -23607,7 +23607,7 @@
         <v>2908</v>
       </c>
       <c r="B2908">
-        <v>61.01818154109648</v>
+        <v>61.01818154109647</v>
       </c>
     </row>
     <row r="2909" spans="1:2">
@@ -23767,7 +23767,7 @@
         <v>2928</v>
       </c>
       <c r="B2928">
-        <v>229.1303820298218</v>
+        <v>229.1303820298217</v>
       </c>
     </row>
     <row r="2929" spans="1:2">
@@ -23871,7 +23871,7 @@
         <v>2941</v>
       </c>
       <c r="B2941">
-        <v>217.0493490599161</v>
+        <v>217.049349059916</v>
       </c>
     </row>
     <row r="2942" spans="1:2">
@@ -24007,7 +24007,7 @@
         <v>2958</v>
       </c>
       <c r="B2958">
-        <v>10.88498661544567</v>
+        <v>10.88498661544566</v>
       </c>
     </row>
     <row r="2959" spans="1:2">
@@ -24031,7 +24031,7 @@
         <v>2961</v>
       </c>
       <c r="B2961">
-        <v>149.1233072949485</v>
+        <v>149.1233072949484</v>
       </c>
     </row>
     <row r="2962" spans="1:2">
@@ -24135,7 +24135,7 @@
         <v>2974</v>
       </c>
       <c r="B2974">
-        <v>91.98359857239237</v>
+        <v>91.98359857239235</v>
       </c>
     </row>
     <row r="2975" spans="1:2">
@@ -24343,7 +24343,7 @@
         <v>3000</v>
       </c>
       <c r="B3000">
-        <v>89.51907628697751</v>
+        <v>89.51907628697749</v>
       </c>
     </row>
     <row r="3001" spans="1:2">
@@ -24543,7 +24543,7 @@
         <v>3025</v>
       </c>
       <c r="B3025">
-        <v>121.026879889524</v>
+        <v>121.0268798895239</v>
       </c>
     </row>
     <row r="3026" spans="1:2">
@@ -24559,7 +24559,7 @@
         <v>3027</v>
       </c>
       <c r="B3027">
-        <v>63.87155048060721</v>
+        <v>63.8715504806072</v>
       </c>
     </row>
     <row r="3028" spans="1:2">
@@ -24639,7 +24639,7 @@
         <v>3037</v>
       </c>
       <c r="B3037">
-        <v>246.8556994404102</v>
+        <v>246.8556994404101</v>
       </c>
     </row>
     <row r="3038" spans="1:2">
@@ -24703,7 +24703,7 @@
         <v>3045</v>
       </c>
       <c r="B3045">
-        <v>393.6015265484262</v>
+        <v>393.6015265484261</v>
       </c>
     </row>
     <row r="3046" spans="1:2">
@@ -24743,7 +24743,7 @@
         <v>3050</v>
       </c>
       <c r="B3050">
-        <v>131.7287205514894</v>
+        <v>131.7287205514893</v>
       </c>
     </row>
     <row r="3051" spans="1:2">
@@ -24759,7 +24759,7 @@
         <v>3052</v>
       </c>
       <c r="B3052">
-        <v>95.326952981441</v>
+        <v>95.32695298144097</v>
       </c>
     </row>
     <row r="3053" spans="1:2">
@@ -24871,7 +24871,7 @@
         <v>3066</v>
       </c>
       <c r="B3066">
-        <v>591.2791730238661</v>
+        <v>591.279173023866</v>
       </c>
     </row>
     <row r="3067" spans="1:2">
@@ -24951,7 +24951,7 @@
         <v>3076</v>
       </c>
       <c r="B3076">
-        <v>55.73396417851309</v>
+        <v>55.73396417851308</v>
       </c>
     </row>
     <row r="3077" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>39.74375919876724</v>
+        <v>39.74375919876723</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25111,7 +25111,7 @@
         <v>3096</v>
       </c>
       <c r="B3096">
-        <v>112.6917050931644</v>
+        <v>112.6917050931643</v>
       </c>
     </row>
     <row r="3097" spans="1:2">
@@ -25119,7 +25119,7 @@
         <v>3097</v>
       </c>
       <c r="B3097">
-        <v>74.20098577374564</v>
+        <v>74.20098577374563</v>
       </c>
     </row>
     <row r="3098" spans="1:2">
@@ -25239,7 +25239,7 @@
         <v>3112</v>
       </c>
       <c r="B3112">
-        <v>496.4497374376565</v>
+        <v>496.4497374376564</v>
       </c>
     </row>
     <row r="3113" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>406.5732024048237</v>
+        <v>406.5732024048236</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25359,7 +25359,7 @@
         <v>3127</v>
       </c>
       <c r="B3127">
-        <v>35.33026175346748</v>
+        <v>35.33026175346747</v>
       </c>
     </row>
     <row r="3128" spans="1:2">
@@ -25383,7 +25383,7 @@
         <v>3130</v>
       </c>
       <c r="B3130">
-        <v>258.3504437974739</v>
+        <v>258.3504437974738</v>
       </c>
     </row>
     <row r="3131" spans="1:2">
@@ -25439,7 +25439,7 @@
         <v>3137</v>
       </c>
       <c r="B3137">
-        <v>526.0051310877449</v>
+        <v>526.0051310877448</v>
       </c>
     </row>
     <row r="3138" spans="1:2">
@@ -25495,7 +25495,7 @@
         <v>3144</v>
       </c>
       <c r="B3144">
-        <v>136.9451798899343</v>
+        <v>136.9451798899342</v>
       </c>
     </row>
     <row r="3145" spans="1:2">
@@ -25535,7 +25535,7 @@
         <v>3149</v>
       </c>
       <c r="B3149">
-        <v>34.70993000877455</v>
+        <v>34.70993000877454</v>
       </c>
     </row>
     <row r="3150" spans="1:2">
@@ -25543,7 +25543,7 @@
         <v>3150</v>
       </c>
       <c r="B3150">
-        <v>39.65745563930224</v>
+        <v>39.65745563930223</v>
       </c>
     </row>
     <row r="3151" spans="1:2">
@@ -25559,7 +25559,7 @@
         <v>3152</v>
       </c>
       <c r="B3152">
-        <v>78.87300704366936</v>
+        <v>78.87300704366933</v>
       </c>
     </row>
     <row r="3153" spans="1:2">
@@ -25655,7 +25655,7 @@
         <v>3164</v>
       </c>
       <c r="B3164">
-        <v>611.365529336118</v>
+        <v>611.3655293361179</v>
       </c>
     </row>
     <row r="3165" spans="1:2">
@@ -25687,7 +25687,7 @@
         <v>3168</v>
       </c>
       <c r="B3168">
-        <v>276.0887735621789</v>
+        <v>276.0887735621788</v>
       </c>
     </row>
     <row r="3169" spans="1:2">
@@ -25711,7 +25711,7 @@
         <v>3171</v>
       </c>
       <c r="B3171">
-        <v>234.4953990777641</v>
+        <v>234.495399077764</v>
       </c>
     </row>
     <row r="3172" spans="1:2">
@@ -25783,7 +25783,7 @@
         <v>3180</v>
       </c>
       <c r="B3180">
-        <v>419.7838190790419</v>
+        <v>419.7838190790418</v>
       </c>
     </row>
     <row r="3181" spans="1:2">
@@ -25807,7 +25807,7 @@
         <v>3183</v>
       </c>
       <c r="B3183">
-        <v>377.0428721899617</v>
+        <v>377.0428721899616</v>
       </c>
     </row>
     <row r="3184" spans="1:2">
@@ -26175,7 +26175,7 @@
         <v>3229</v>
       </c>
       <c r="B3229">
-        <v>216.351429688448</v>
+        <v>216.3514296884479</v>
       </c>
     </row>
     <row r="3230" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>23.14729867631535</v>
+        <v>23.14729867631534</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26335,7 +26335,7 @@
         <v>3249</v>
       </c>
       <c r="B3249">
-        <v>259.3651436546311</v>
+        <v>259.365143654631</v>
       </c>
     </row>
     <row r="3250" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>292.4731737424762</v>
+        <v>292.4731737424761</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>505.8383560824843</v>
+        <v>505.8383560824842</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26575,7 +26575,7 @@
         <v>3279</v>
       </c>
       <c r="B3279">
-        <v>577.0202119372524</v>
+        <v>577.0202119372523</v>
       </c>
     </row>
     <row r="3280" spans="1:2">
@@ -26639,7 +26639,7 @@
         <v>3287</v>
       </c>
       <c r="B3287">
-        <v>279.60278323704</v>
+        <v>279.6027832370399</v>
       </c>
     </row>
     <row r="3288" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>161.1895694845057</v>
+        <v>161.1895694845056</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -27015,7 +27015,7 @@
         <v>3334</v>
       </c>
       <c r="B3334">
-        <v>103.1880853727659</v>
+        <v>103.1880853727658</v>
       </c>
     </row>
     <row r="3335" spans="1:2">
@@ -27063,7 +27063,7 @@
         <v>3340</v>
       </c>
       <c r="B3340">
-        <v>7.657465603717548</v>
+        <v>7.657465603717546</v>
       </c>
     </row>
     <row r="3341" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>26.52576885721638</v>
+        <v>26.52576885721637</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27095,7 +27095,7 @@
         <v>3344</v>
       </c>
       <c r="B3344">
-        <v>97.63137055843515</v>
+        <v>97.63137055843514</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -27151,7 +27151,7 @@
         <v>3351</v>
       </c>
       <c r="B3351">
-        <v>103.0806338071511</v>
+        <v>103.080633807151</v>
       </c>
     </row>
     <row r="3352" spans="1:2">
@@ -27167,7 +27167,7 @@
         <v>3353</v>
       </c>
       <c r="B3353">
-        <v>87.22518875240246</v>
+        <v>87.22518875240245</v>
       </c>
     </row>
     <row r="3354" spans="1:2">
@@ -27223,7 +27223,7 @@
         <v>3360</v>
       </c>
       <c r="B3360">
-        <v>17.95074472281635</v>
+        <v>17.95074472281634</v>
       </c>
     </row>
     <row r="3361" spans="1:2">
@@ -27239,7 +27239,7 @@
         <v>3362</v>
       </c>
       <c r="B3362">
-        <v>7.993597570089405</v>
+        <v>7.993597570089404</v>
       </c>
     </row>
     <row r="3363" spans="1:2">
@@ -27263,7 +27263,7 @@
         <v>3365</v>
       </c>
       <c r="B3365">
-        <v>7.064863361489645</v>
+        <v>7.064863361489644</v>
       </c>
     </row>
     <row r="3366" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>7.867329964579437</v>
+        <v>7.867329964579435</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>99.82711739429368</v>
+        <v>99.82711739429367</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>6.842146370227265</v>
+        <v>6.842146370227264</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27535,7 +27535,7 @@
         <v>3399</v>
       </c>
       <c r="B3399">
-        <v>304.3876544411107</v>
+        <v>304.3876544411106</v>
       </c>
     </row>
     <row r="3400" spans="1:2">
@@ -27615,7 +27615,7 @@
         <v>3409</v>
       </c>
       <c r="B3409">
-        <v>34.29279027660631</v>
+        <v>34.2927902766063</v>
       </c>
     </row>
     <row r="3410" spans="1:2">
@@ -27727,7 +27727,7 @@
         <v>3423</v>
       </c>
       <c r="B3423">
-        <v>443.550795951634</v>
+        <v>443.5507959516339</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -27807,7 +27807,7 @@
         <v>3433</v>
       </c>
       <c r="B3433">
-        <v>96.32550462436794</v>
+        <v>96.32550462436792</v>
       </c>
     </row>
     <row r="3434" spans="1:2">
@@ -27815,7 +27815,7 @@
         <v>3434</v>
       </c>
       <c r="B3434">
-        <v>50.44837524346877</v>
+        <v>50.44837524346876</v>
       </c>
     </row>
     <row r="3435" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>399.044383264237</v>
+        <v>399.0443832642369</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>523.2142448936768</v>
+        <v>523.2142448936767</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27927,7 +27927,7 @@
         <v>3448</v>
       </c>
       <c r="B3448">
-        <v>681.6360514890646</v>
+        <v>681.6360514890645</v>
       </c>
     </row>
     <row r="3449" spans="1:2">
@@ -28095,7 +28095,7 @@
         <v>3469</v>
       </c>
       <c r="B3469">
-        <v>426.8869818430769</v>
+        <v>426.8869818430768</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>489.5941903941865</v>
+        <v>489.5941903941864</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28255,7 +28255,7 @@
         <v>3489</v>
       </c>
       <c r="B3489">
-        <v>55.60826601003124</v>
+        <v>55.60826601003123</v>
       </c>
     </row>
     <row r="3490" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>491.8514059496938</v>
+        <v>491.8514059496937</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28439,7 +28439,7 @@
         <v>3512</v>
       </c>
       <c r="B3512">
-        <v>194.5401744710508</v>
+        <v>194.5401744710507</v>
       </c>
     </row>
     <row r="3513" spans="1:2">
@@ -28535,7 +28535,7 @@
         <v>3524</v>
       </c>
       <c r="B3524">
-        <v>544.9130956449059</v>
+        <v>544.9130956449058</v>
       </c>
     </row>
     <row r="3525" spans="1:2">
@@ -28559,7 +28559,7 @@
         <v>3527</v>
       </c>
       <c r="B3527">
-        <v>316.2887124861744</v>
+        <v>316.2887124861743</v>
       </c>
     </row>
     <row r="3528" spans="1:2">
@@ -28623,7 +28623,7 @@
         <v>3535</v>
       </c>
       <c r="B3535">
-        <v>33.02320946783576</v>
+        <v>33.02320946783575</v>
       </c>
     </row>
     <row r="3536" spans="1:2">
@@ -28655,7 +28655,7 @@
         <v>3539</v>
       </c>
       <c r="B3539">
-        <v>428.5664547372296</v>
+        <v>428.5664547372295</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -28735,7 +28735,7 @@
         <v>3549</v>
       </c>
       <c r="B3549">
-        <v>415.6840483192084</v>
+        <v>415.6840483192083</v>
       </c>
     </row>
     <row r="3550" spans="1:2">
@@ -28807,7 +28807,7 @@
         <v>3558</v>
       </c>
       <c r="B3558">
-        <v>382.5327902531607</v>
+        <v>382.5327902531606</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>542.951143299429</v>
+        <v>542.9511432994288</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28879,7 +28879,7 @@
         <v>3567</v>
       </c>
       <c r="B3567">
-        <v>754.6145500392424</v>
+        <v>754.6145500392423</v>
       </c>
     </row>
     <row r="3568" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>850.4320746322985</v>
+        <v>850.4320746322984</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -28999,7 +28999,7 @@
         <v>3582</v>
       </c>
       <c r="B3582">
-        <v>260.4440846834628</v>
+        <v>260.4440846834627</v>
       </c>
     </row>
     <row r="3583" spans="1:2">
@@ -29007,7 +29007,7 @@
         <v>3583</v>
       </c>
       <c r="B3583">
-        <v>209.8148025492492</v>
+        <v>209.8148025492491</v>
       </c>
     </row>
     <row r="3584" spans="1:2">
@@ -29039,7 +29039,7 @@
         <v>3587</v>
       </c>
       <c r="B3587">
-        <v>552.8008506093828</v>
+        <v>552.8008506093827</v>
       </c>
     </row>
     <row r="3588" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>724.0589635484104</v>
+        <v>724.0589635484102</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29255,7 +29255,7 @@
         <v>3614</v>
       </c>
       <c r="B3614">
-        <v>824.4293467270708</v>
+        <v>824.4293467270707</v>
       </c>
     </row>
     <row r="3615" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>922.3818938367748</v>
+        <v>922.3818938367747</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29399,7 +29399,7 @@
         <v>3632</v>
       </c>
       <c r="B3632">
-        <v>441.588069898615</v>
+        <v>441.5880698986149</v>
       </c>
     </row>
     <row r="3633" spans="1:2">
@@ -29423,7 +29423,7 @@
         <v>3635</v>
       </c>
       <c r="B3635">
-        <v>640.4030078466841</v>
+        <v>640.403007846684</v>
       </c>
     </row>
     <row r="3636" spans="1:2">
@@ -29511,7 +29511,7 @@
         <v>3646</v>
       </c>
       <c r="B3646">
-        <v>436.4516482608286</v>
+        <v>436.4516482608285</v>
       </c>
     </row>
     <row r="3647" spans="1:2">
@@ -29591,7 +29591,7 @@
         <v>3656</v>
       </c>
       <c r="B3656">
-        <v>31.74049321511239</v>
+        <v>31.74049321511238</v>
       </c>
     </row>
     <row r="3657" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>82.18802148327944</v>
+        <v>82.18802148327941</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>240.5856497179778</v>
+        <v>240.5856497179777</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29663,7 +29663,7 @@
         <v>3665</v>
       </c>
       <c r="B3665">
-        <v>304.7956386340311</v>
+        <v>304.795638634031</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -29671,7 +29671,7 @@
         <v>3666</v>
       </c>
       <c r="B3666">
-        <v>629.9511274735929</v>
+        <v>629.9511274735928</v>
       </c>
     </row>
     <row r="3667" spans="1:2">
@@ -29847,7 +29847,7 @@
         <v>3688</v>
       </c>
       <c r="B3688">
-        <v>296.7323223945546</v>
+        <v>296.7323223945545</v>
       </c>
     </row>
     <row r="3689" spans="1:2">
@@ -29887,7 +29887,7 @@
         <v>3693</v>
       </c>
       <c r="B3693">
-        <v>299.0862924227656</v>
+        <v>299.0862924227655</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -29927,7 +29927,7 @@
         <v>3698</v>
       </c>
       <c r="B3698">
-        <v>59.33683299229634</v>
+        <v>59.33683299229633</v>
       </c>
     </row>
     <row r="3699" spans="1:2">
@@ -29983,7 +29983,7 @@
         <v>3705</v>
       </c>
       <c r="B3705">
-        <v>339.167830647142</v>
+        <v>339.1678306471418</v>
       </c>
     </row>
     <row r="3706" spans="1:2">
@@ -30015,7 +30015,7 @@
         <v>3709</v>
       </c>
       <c r="B3709">
-        <v>557.6306613265216</v>
+        <v>557.6306613265215</v>
       </c>
     </row>
     <row r="3710" spans="1:2">
@@ -30247,7 +30247,7 @@
         <v>3738</v>
       </c>
       <c r="B3738">
-        <v>722.9748937764022</v>
+        <v>722.974893776402</v>
       </c>
     </row>
     <row r="3739" spans="1:2">
@@ -30319,7 +30319,7 @@
         <v>3747</v>
       </c>
       <c r="B3747">
-        <v>188.8249961461159</v>
+        <v>188.8249961461158</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>459.724419440926</v>
+        <v>459.7244194409259</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30391,7 +30391,7 @@
         <v>3756</v>
       </c>
       <c r="B3756">
-        <v>609.9412040882238</v>
+        <v>609.9412040882237</v>
       </c>
     </row>
     <row r="3757" spans="1:2">
@@ -30447,7 +30447,7 @@
         <v>3763</v>
       </c>
       <c r="B3763">
-        <v>804.2889188081857</v>
+        <v>804.2889188081856</v>
       </c>
     </row>
     <row r="3764" spans="1:2">
@@ -30503,7 +30503,7 @@
         <v>3770</v>
       </c>
       <c r="B3770">
-        <v>320.738116995131</v>
+        <v>320.7381169951309</v>
       </c>
     </row>
     <row r="3771" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>777.7267182901533</v>
+        <v>777.7267182901531</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30823,7 +30823,7 @@
         <v>3810</v>
       </c>
       <c r="B3810">
-        <v>950.9551478221013</v>
+        <v>950.9551478221011</v>
       </c>
     </row>
     <row r="3811" spans="1:2">
@@ -30839,7 +30839,7 @@
         <v>3812</v>
       </c>
       <c r="B3812">
-        <v>490.0742114484099</v>
+        <v>490.0742114484098</v>
       </c>
     </row>
     <row r="3813" spans="1:2">
@@ -30887,7 +30887,7 @@
         <v>3818</v>
       </c>
       <c r="B3818">
-        <v>95.46038822534349</v>
+        <v>95.46038822534348</v>
       </c>
     </row>
     <row r="3819" spans="1:2">
@@ -30927,7 +30927,7 @@
         <v>3823</v>
       </c>
       <c r="B3823">
-        <v>60.75951704237397</v>
+        <v>60.75951704237396</v>
       </c>
     </row>
     <row r="3824" spans="1:2">
@@ -30991,7 +30991,7 @@
         <v>3831</v>
       </c>
       <c r="B3831">
-        <v>382.6353065024844</v>
+        <v>382.6353065024843</v>
       </c>
     </row>
     <row r="3832" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>94.14898324864558</v>
+        <v>94.14898324864556</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31095,7 +31095,7 @@
         <v>3844</v>
       </c>
       <c r="B3844">
-        <v>49.46181899815425</v>
+        <v>49.46181899815424</v>
       </c>
     </row>
     <row r="3845" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>211.7181524098353</v>
+        <v>211.7181524098352</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31519,7 +31519,7 @@
         <v>3897</v>
       </c>
       <c r="B3897">
-        <v>244.7022134483266</v>
+        <v>244.7022134483265</v>
       </c>
     </row>
     <row r="3898" spans="1:2">
@@ -31599,7 +31599,7 @@
         <v>3907</v>
       </c>
       <c r="B3907">
-        <v>794.140161810382</v>
+        <v>794.1401618103819</v>
       </c>
     </row>
     <row r="3908" spans="1:2">
@@ -31639,7 +31639,7 @@
         <v>3912</v>
       </c>
       <c r="B3912">
-        <v>297.1587935085938</v>
+        <v>297.1587935085937</v>
       </c>
     </row>
     <row r="3913" spans="1:2">
@@ -31735,7 +31735,7 @@
         <v>3924</v>
       </c>
       <c r="B3924">
-        <v>725.1864078341406</v>
+        <v>725.1864078341405</v>
       </c>
     </row>
     <row r="3925" spans="1:2">
@@ -31775,7 +31775,7 @@
         <v>3929</v>
       </c>
       <c r="B3929">
-        <v>944.9005932343965</v>
+        <v>944.9005932343962</v>
       </c>
     </row>
     <row r="3930" spans="1:2">
@@ -31783,7 +31783,7 @@
         <v>3930</v>
       </c>
       <c r="B3930">
-        <v>1334.217040205244</v>
+        <v>1334.217040205243</v>
       </c>
     </row>
     <row r="3931" spans="1:2">
@@ -31799,7 +31799,7 @@
         <v>3932</v>
       </c>
       <c r="B3932">
-        <v>790.8946931282461</v>
+        <v>790.894693128246</v>
       </c>
     </row>
     <row r="3933" spans="1:2">
@@ -31807,7 +31807,7 @@
         <v>3933</v>
       </c>
       <c r="B3933">
-        <v>689.0680399584778</v>
+        <v>689.0680399584777</v>
       </c>
     </row>
     <row r="3934" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>1005.219595198559</v>
+        <v>1005.219595198558</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -31991,7 +31991,7 @@
         <v>3956</v>
       </c>
       <c r="B3956">
-        <v>877.6434275009658</v>
+        <v>877.6434275009657</v>
       </c>
     </row>
     <row r="3957" spans="1:2">
@@ -32007,7 +32007,7 @@
         <v>3958</v>
       </c>
       <c r="B3958">
-        <v>711.0902770166073</v>
+        <v>711.0902770166072</v>
       </c>
     </row>
     <row r="3959" spans="1:2">
@@ -32047,7 +32047,7 @@
         <v>3963</v>
       </c>
       <c r="B3963">
-        <v>396.8765074841552</v>
+        <v>396.8765074841551</v>
       </c>
     </row>
     <row r="3964" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>598.5014691651169</v>
+        <v>598.5014691651168</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32183,7 +32183,7 @@
         <v>3980</v>
       </c>
       <c r="B3980">
-        <v>890.5344502075237</v>
+        <v>890.5344502075236</v>
       </c>
     </row>
     <row r="3981" spans="1:2">
@@ -32215,7 +32215,7 @@
         <v>3984</v>
       </c>
       <c r="B3984">
-        <v>496.7847176348464</v>
+        <v>496.7847176348463</v>
       </c>
     </row>
     <row r="3985" spans="1:2">
@@ -32327,7 +32327,7 @@
         <v>3998</v>
       </c>
       <c r="B3998">
-        <v>558.6112184076748</v>
+        <v>558.6112184076746</v>
       </c>
     </row>
     <row r="3999" spans="1:2">
@@ -32455,7 +32455,7 @@
         <v>4014</v>
       </c>
       <c r="B4014">
-        <v>300.9065859509951</v>
+        <v>300.906585950995</v>
       </c>
     </row>
     <row r="4015" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>832.0538828688842</v>
+        <v>832.0538828688841</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32783,7 +32783,7 @@
         <v>4055</v>
       </c>
       <c r="B4055">
-        <v>507.9516034209597</v>
+        <v>507.9516034209596</v>
       </c>
     </row>
     <row r="4056" spans="1:2">
@@ -32791,7 +32791,7 @@
         <v>4056</v>
       </c>
       <c r="B4056">
-        <v>452.9802686992511</v>
+        <v>452.980268699251</v>
       </c>
     </row>
     <row r="4057" spans="1:2">
@@ -32815,7 +32815,7 @@
         <v>4059</v>
       </c>
       <c r="B4059">
-        <v>323.7585071195748</v>
+        <v>323.7585071195747</v>
       </c>
     </row>
     <row r="4060" spans="1:2">
@@ -32831,7 +32831,7 @@
         <v>4061</v>
       </c>
       <c r="B4061">
-        <v>545.9104574194158</v>
+        <v>545.9104574194157</v>
       </c>
     </row>
     <row r="4062" spans="1:2">
@@ -32855,7 +32855,7 @@
         <v>4064</v>
       </c>
       <c r="B4064">
-        <v>514.4355070803033</v>
+        <v>514.4355070803032</v>
       </c>
     </row>
     <row r="4065" spans="1:2">
@@ -32919,7 +32919,7 @@
         <v>4072</v>
       </c>
       <c r="B4072">
-        <v>801.2025877000431</v>
+        <v>801.202587700043</v>
       </c>
     </row>
     <row r="4073" spans="1:2">
@@ -32975,7 +32975,7 @@
         <v>4079</v>
       </c>
       <c r="B4079">
-        <v>506.1644562272028</v>
+        <v>506.1644562272027</v>
       </c>
     </row>
     <row r="4080" spans="1:2">
@@ -32983,7 +32983,7 @@
         <v>4080</v>
       </c>
       <c r="B4080">
-        <v>444.910557649711</v>
+        <v>444.9105576497109</v>
       </c>
     </row>
     <row r="4081" spans="1:2">
@@ -33015,7 +33015,7 @@
         <v>4084</v>
       </c>
       <c r="B4084">
-        <v>336.964288121655</v>
+        <v>336.9642881216549</v>
       </c>
     </row>
     <row r="4085" spans="1:2">
@@ -33143,7 +33143,7 @@
         <v>4100</v>
       </c>
       <c r="B4100">
-        <v>744.7090420035274</v>
+        <v>744.7090420035273</v>
       </c>
     </row>
     <row r="4101" spans="1:2">
@@ -33151,7 +33151,7 @@
         <v>4101</v>
       </c>
       <c r="B4101">
-        <v>657.6827693571956</v>
+        <v>657.6827693571955</v>
       </c>
     </row>
     <row r="4102" spans="1:2">
@@ -33231,7 +33231,7 @@
         <v>4111</v>
       </c>
       <c r="B4111">
-        <v>157.7691696301034</v>
+        <v>157.7691696301033</v>
       </c>
     </row>
     <row r="4112" spans="1:2">
@@ -33271,7 +33271,7 @@
         <v>4116</v>
       </c>
       <c r="B4116">
-        <v>696.1990444711856</v>
+        <v>696.1990444711855</v>
       </c>
     </row>
     <row r="4117" spans="1:2">
@@ -33287,7 +33287,7 @@
         <v>4118</v>
       </c>
       <c r="B4118">
-        <v>758.3570672029476</v>
+        <v>758.3570672029475</v>
       </c>
     </row>
     <row r="4119" spans="1:2">
@@ -33535,7 +33535,7 @@
         <v>4149</v>
       </c>
       <c r="B4149">
-        <v>622.2668927612041</v>
+        <v>622.266892761204</v>
       </c>
     </row>
     <row r="4150" spans="1:2">
@@ -33543,7 +33543,7 @@
         <v>4150</v>
       </c>
       <c r="B4150">
-        <v>526.1014928452569</v>
+        <v>526.1014928452568</v>
       </c>
     </row>
     <row r="4151" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>400.6483317517267</v>
+        <v>400.6483317517266</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>566.524370908362</v>
+        <v>566.5243709083619</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33711,7 +33711,7 @@
         <v>4171</v>
       </c>
       <c r="B4171">
-        <v>751.1856188869045</v>
+        <v>751.1856188869044</v>
       </c>
     </row>
     <row r="4172" spans="1:2">
@@ -33863,7 +33863,7 @@
         <v>4190</v>
       </c>
       <c r="B4190">
-        <v>749.8436466008742</v>
+        <v>749.8436466008741</v>
       </c>
     </row>
     <row r="4191" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>858.7136760427908</v>
+        <v>858.7136760427907</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -33951,7 +33951,7 @@
         <v>4201</v>
       </c>
       <c r="B4201">
-        <v>450.9324934308128</v>
+        <v>450.9324934308127</v>
       </c>
     </row>
     <row r="4202" spans="1:2">
@@ -34031,7 +34031,7 @@
         <v>4211</v>
       </c>
       <c r="B4211">
-        <v>809.6532910998429</v>
+        <v>809.6532910998428</v>
       </c>
     </row>
     <row r="4212" spans="1:2">
@@ -34103,7 +34103,7 @@
         <v>4220</v>
       </c>
       <c r="B4220">
-        <v>666.3057985277284</v>
+        <v>666.3057985277283</v>
       </c>
     </row>
     <row r="4221" spans="1:2">
@@ -34119,7 +34119,7 @@
         <v>4222</v>
       </c>
       <c r="B4222">
-        <v>462.937650308809</v>
+        <v>462.9376503088089</v>
       </c>
     </row>
     <row r="4223" spans="1:2">
@@ -34263,7 +34263,7 @@
         <v>4240</v>
       </c>
       <c r="B4240">
-        <v>870.4168818296544</v>
+        <v>870.4168818296542</v>
       </c>
     </row>
     <row r="4241" spans="1:2">
@@ -34287,7 +34287,7 @@
         <v>4243</v>
       </c>
       <c r="B4243">
-        <v>839.351937873629</v>
+        <v>839.3519378736289</v>
       </c>
     </row>
     <row r="4244" spans="1:2">
@@ -34311,7 +34311,7 @@
         <v>4246</v>
       </c>
       <c r="B4246">
-        <v>515.6499934645159</v>
+        <v>515.6499934645158</v>
       </c>
     </row>
     <row r="4247" spans="1:2">
@@ -34367,7 +34367,7 @@
         <v>4253</v>
       </c>
       <c r="B4253">
-        <v>465.8457942254455</v>
+        <v>465.8457942254454</v>
       </c>
     </row>
     <row r="4254" spans="1:2">
@@ -34495,7 +34495,7 @@
         <v>4269</v>
       </c>
       <c r="B4269">
-        <v>523.0090072453023</v>
+        <v>523.0090072453022</v>
       </c>
     </row>
     <row r="4270" spans="1:2">
@@ -34623,7 +34623,7 @@
         <v>4285</v>
       </c>
       <c r="B4285">
-        <v>578.0286986883899</v>
+        <v>578.0286986883898</v>
       </c>
     </row>
     <row r="4286" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>740.6971925552923</v>
+        <v>740.6971925552922</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34679,7 +34679,7 @@
         <v>4292</v>
       </c>
       <c r="B4292">
-        <v>670.9700241080237</v>
+        <v>670.9700241080236</v>
       </c>
     </row>
     <row r="4293" spans="1:2">
@@ -34687,7 +34687,7 @@
         <v>4293</v>
       </c>
       <c r="B4293">
-        <v>659.5648715674788</v>
+        <v>659.5648715674787</v>
       </c>
     </row>
     <row r="4294" spans="1:2">
@@ -34759,7 +34759,7 @@
         <v>4302</v>
       </c>
       <c r="B4302">
-        <v>486.6257031506896</v>
+        <v>486.6257031506895</v>
       </c>
     </row>
     <row r="4303" spans="1:2">
@@ -34807,7 +34807,7 @@
         <v>4308</v>
       </c>
       <c r="B4308">
-        <v>669.9307942049306</v>
+        <v>669.9307942049305</v>
       </c>
     </row>
     <row r="4309" spans="1:2">
@@ -34863,7 +34863,7 @@
         <v>4315</v>
       </c>
       <c r="B4315">
-        <v>682.9167719280148</v>
+        <v>682.9167719280147</v>
       </c>
     </row>
     <row r="4316" spans="1:2">
@@ -34879,7 +34879,7 @@
         <v>4317</v>
       </c>
       <c r="B4317">
-        <v>506.4370122931578</v>
+        <v>506.4370122931577</v>
       </c>
     </row>
     <row r="4318" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>272.62200693875</v>
+        <v>272.6220069387499</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -34959,7 +34959,7 @@
         <v>4327</v>
       </c>
       <c r="B4327">
-        <v>56.52993046596538</v>
+        <v>56.52993046596537</v>
       </c>
     </row>
     <row r="4328" spans="1:2">
@@ -34967,7 +34967,7 @@
         <v>4328</v>
       </c>
       <c r="B4328">
-        <v>86.16265090960458</v>
+        <v>86.16265090960457</v>
       </c>
     </row>
     <row r="4329" spans="1:2">
@@ -35247,7 +35247,7 @@
         <v>4363</v>
       </c>
       <c r="B4363">
-        <v>797.1565661687</v>
+        <v>797.1565661686999</v>
       </c>
     </row>
     <row r="4364" spans="1:2">
@@ -35287,7 +35287,7 @@
         <v>4368</v>
       </c>
       <c r="B4368">
-        <v>412.4631976043202</v>
+        <v>412.46319760432</v>
       </c>
     </row>
     <row r="4369" spans="1:2">
@@ -35359,7 +35359,7 @@
         <v>4377</v>
       </c>
       <c r="B4377">
-        <v>344.1019160398366</v>
+        <v>344.1019160398365</v>
       </c>
     </row>
     <row r="4378" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>803.0609511561946</v>
+        <v>803.0609511561945</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35487,7 +35487,7 @@
         <v>4393</v>
       </c>
       <c r="B4393">
-        <v>390.2648248519552</v>
+        <v>390.2648248519551</v>
       </c>
     </row>
     <row r="4394" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>329.1190694877295</v>
+        <v>329.1190694877294</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>864.5935602914534</v>
+        <v>864.5935602914533</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>845.6714286802836</v>
+        <v>845.6714286802835</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35671,7 +35671,7 @@
         <v>4416</v>
       </c>
       <c r="B4416">
-        <v>399.5153191162619</v>
+        <v>399.5153191162618</v>
       </c>
     </row>
     <row r="4417" spans="1:2">
@@ -35679,7 +35679,7 @@
         <v>4417</v>
       </c>
       <c r="B4417">
-        <v>364.9171107181355</v>
+        <v>364.9171107181354</v>
       </c>
     </row>
     <row r="4418" spans="1:2">
@@ -35711,7 +35711,7 @@
         <v>4421</v>
       </c>
       <c r="B4421">
-        <v>251.5976474601585</v>
+        <v>251.5976474601584</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
@@ -35839,7 +35839,7 @@
         <v>4437</v>
       </c>
       <c r="B4437">
-        <v>405.1314394301293</v>
+        <v>405.1314394301292</v>
       </c>
     </row>
     <row r="4438" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>591.8897865329169</v>
+        <v>591.8897865329168</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -35967,7 +35967,7 @@
         <v>4453</v>
       </c>
       <c r="B4453">
-        <v>697.865446397014</v>
+        <v>697.8654463970139</v>
       </c>
     </row>
     <row r="4454" spans="1:2">
@@ -36031,7 +36031,7 @@
         <v>4461</v>
       </c>
       <c r="B4461">
-        <v>729.884336583882</v>
+        <v>729.8843365838818</v>
       </c>
     </row>
     <row r="4462" spans="1:2">
@@ -36039,7 +36039,7 @@
         <v>4462</v>
       </c>
       <c r="B4462">
-        <v>606.4560032964631</v>
+        <v>606.456003296463</v>
       </c>
     </row>
     <row r="4463" spans="1:2">
@@ -36159,7 +36159,7 @@
         <v>4477</v>
       </c>
       <c r="B4477">
-        <v>814.772069861102</v>
+        <v>814.7720698611018</v>
       </c>
     </row>
     <row r="4478" spans="1:2">
@@ -36167,7 +36167,7 @@
         <v>4478</v>
       </c>
       <c r="B4478">
-        <v>893.273199063814</v>
+        <v>893.2731990638138</v>
       </c>
     </row>
     <row r="4479" spans="1:2">
@@ -36215,7 +36215,7 @@
         <v>4484</v>
       </c>
       <c r="B4484">
-        <v>828.1196972458944</v>
+        <v>828.1196972458943</v>
       </c>
     </row>
     <row r="4485" spans="1:2">
@@ -36239,7 +36239,7 @@
         <v>4487</v>
       </c>
       <c r="B4487">
-        <v>513.4490299641692</v>
+        <v>513.4490299641691</v>
       </c>
     </row>
     <row r="4488" spans="1:2">
@@ -36255,7 +36255,7 @@
         <v>4489</v>
       </c>
       <c r="B4489">
-        <v>429.4809536062685</v>
+        <v>429.4809536062684</v>
       </c>
     </row>
     <row r="4490" spans="1:2">
@@ -36383,7 +36383,7 @@
         <v>4505</v>
       </c>
       <c r="B4505">
-        <v>937.1239532235177</v>
+        <v>937.1239532235176</v>
       </c>
     </row>
     <row r="4506" spans="1:2">
@@ -36407,7 +36407,7 @@
         <v>4508</v>
       </c>
       <c r="B4508">
-        <v>846.3519982462631</v>
+        <v>846.3519982462628</v>
       </c>
     </row>
     <row r="4509" spans="1:2">
@@ -36431,7 +36431,7 @@
         <v>4511</v>
       </c>
       <c r="B4511">
-        <v>530.7565423713316</v>
+        <v>530.7565423713315</v>
       </c>
     </row>
     <row r="4512" spans="1:2">
@@ -36447,7 +36447,7 @@
         <v>4513</v>
       </c>
       <c r="B4513">
-        <v>438.9407005921794</v>
+        <v>438.9407005921793</v>
       </c>
     </row>
     <row r="4514" spans="1:2">
@@ -36463,7 +36463,7 @@
         <v>4515</v>
       </c>
       <c r="B4515">
-        <v>374.0037782718305</v>
+        <v>374.0037782718304</v>
       </c>
     </row>
     <row r="4516" spans="1:2">
@@ -36535,7 +36535,7 @@
         <v>4524</v>
       </c>
       <c r="B4524">
-        <v>804.3404993109903</v>
+        <v>804.3404993109901</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36655,7 +36655,7 @@
         <v>4539</v>
       </c>
       <c r="B4539">
-        <v>331.6901817099055</v>
+        <v>331.6901817099054</v>
       </c>
     </row>
     <row r="4540" spans="1:2">
@@ -36775,7 +36775,7 @@
         <v>4554</v>
       </c>
       <c r="B4554">
-        <v>1006.361106894145</v>
+        <v>1006.361106894144</v>
       </c>
     </row>
     <row r="4555" spans="1:2">
@@ -37023,7 +37023,7 @@
         <v>4585</v>
       </c>
       <c r="B4585">
-        <v>256.2711633923794</v>
+        <v>256.2711633923793</v>
       </c>
     </row>
     <row r="4586" spans="1:2">
@@ -37039,7 +37039,7 @@
         <v>4587</v>
       </c>
       <c r="B4587">
-        <v>187.2805410794745</v>
+        <v>187.2805410794744</v>
       </c>
     </row>
     <row r="4588" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>657.4069895098153</v>
+        <v>657.4069895098152</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37135,7 +37135,7 @@
         <v>4599</v>
       </c>
       <c r="B4599">
-        <v>825.5359829690558</v>
+        <v>825.5359829690557</v>
       </c>
     </row>
     <row r="4600" spans="1:2">
@@ -37247,7 +37247,7 @@
         <v>4613</v>
       </c>
       <c r="B4613">
-        <v>358.7161085324117</v>
+        <v>358.7161085324116</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>592.6655455722536</v>
+        <v>592.6655455722534</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37423,7 +37423,7 @@
         <v>4635</v>
       </c>
       <c r="B4635">
-        <v>331.4003344526694</v>
+        <v>331.4003344526693</v>
       </c>
     </row>
     <row r="4636" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>427.9373484456392</v>
+        <v>427.9373484456391</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37495,7 +37495,7 @@
         <v>4644</v>
       </c>
       <c r="B4644">
-        <v>533.4921582982187</v>
+        <v>533.4921582982186</v>
       </c>
     </row>
     <row r="4645" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>701.8046142276612</v>
+        <v>701.804614227661</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -37527,7 +37527,7 @@
         <v>4648</v>
       </c>
       <c r="B4648">
-        <v>637.600955646043</v>
+        <v>637.6009556460428</v>
       </c>
     </row>
     <row r="4649" spans="1:2">
@@ -37551,7 +37551,7 @@
         <v>4651</v>
       </c>
       <c r="B4651">
-        <v>873.3461268610744</v>
+        <v>873.3461268610743</v>
       </c>
     </row>
     <row r="4652" spans="1:2">
@@ -37591,7 +37591,7 @@
         <v>4656</v>
       </c>
       <c r="B4656">
-        <v>401.877764758911</v>
+        <v>401.8777647589109</v>
       </c>
     </row>
     <row r="4657" spans="1:2">
@@ -37615,7 +37615,7 @@
         <v>4659</v>
       </c>
       <c r="B4659">
-        <v>313.8295534007671</v>
+        <v>313.829553400767</v>
       </c>
     </row>
     <row r="4660" spans="1:2">
@@ -37623,7 +37623,7 @@
         <v>4660</v>
       </c>
       <c r="B4660">
-        <v>291.434823052499</v>
+        <v>291.4348230524989</v>
       </c>
     </row>
     <row r="4661" spans="1:2">
@@ -37631,7 +37631,7 @@
         <v>4661</v>
       </c>
       <c r="B4661">
-        <v>279.4156866859586</v>
+        <v>279.4156866859585</v>
       </c>
     </row>
     <row r="4662" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>436.3051127414979</v>
+        <v>436.3051127414978</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37759,7 +37759,7 @@
         <v>4677</v>
       </c>
       <c r="B4677">
-        <v>610.1176328534979</v>
+        <v>610.1176328534978</v>
       </c>
     </row>
     <row r="4678" spans="1:2">
@@ -37775,7 +37775,7 @@
         <v>4679</v>
       </c>
       <c r="B4679">
-        <v>393.7887110208193</v>
+        <v>393.7887110208192</v>
       </c>
     </row>
     <row r="4680" spans="1:2">
@@ -37807,7 +37807,7 @@
         <v>4683</v>
       </c>
       <c r="B4683">
-        <v>215.3807784084016</v>
+        <v>215.3807784084015</v>
       </c>
     </row>
     <row r="4684" spans="1:2">
@@ -37919,7 +37919,7 @@
         <v>4697</v>
       </c>
       <c r="B4697">
-        <v>746.3742716452014</v>
+        <v>746.3742716452011</v>
       </c>
     </row>
     <row r="4698" spans="1:2">
@@ -38007,7 +38007,7 @@
         <v>4708</v>
       </c>
       <c r="B4708">
-        <v>210.1650224404495</v>
+        <v>210.1650224404494</v>
       </c>
     </row>
     <row r="4709" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>740.6423882710626</v>
+        <v>740.6423882710625</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38063,7 +38063,7 @@
         <v>4715</v>
       </c>
       <c r="B4715">
-        <v>727.3454621759588</v>
+        <v>727.3454621759587</v>
       </c>
     </row>
     <row r="4716" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>762.3574868806751</v>
+        <v>762.357486880675</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38167,7 +38167,7 @@
         <v>4728</v>
       </c>
       <c r="B4728">
-        <v>404.4940099210409</v>
+        <v>404.4940099210408</v>
       </c>
     </row>
     <row r="4729" spans="1:2">
@@ -38191,7 +38191,7 @@
         <v>4731</v>
       </c>
       <c r="B4731">
-        <v>278.0287279954938</v>
+        <v>278.0287279954937</v>
       </c>
     </row>
     <row r="4732" spans="1:2">
@@ -38215,7 +38215,7 @@
         <v>4734</v>
       </c>
       <c r="B4734">
-        <v>508.9580093677228</v>
+        <v>508.9580093677226</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>664.9746698701285</v>
+        <v>664.9746698701284</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38287,7 +38287,7 @@
         <v>4743</v>
       </c>
       <c r="B4743">
-        <v>962.1325841656062</v>
+        <v>962.1325841656061</v>
       </c>
     </row>
     <row r="4744" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>968.3676705131265</v>
+        <v>968.3676705131264</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>515.2321034704887</v>
+        <v>515.2321034704886</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38431,7 +38431,7 @@
         <v>4761</v>
       </c>
       <c r="B4761">
-        <v>713.1429465713912</v>
+        <v>713.1429465713911</v>
       </c>
     </row>
     <row r="4762" spans="1:2">
@@ -38471,7 +38471,7 @@
         <v>4766</v>
       </c>
       <c r="B4766">
-        <v>981.5737445862454</v>
+        <v>981.5737445862453</v>
       </c>
     </row>
     <row r="4767" spans="1:2">
@@ -38535,7 +38535,7 @@
         <v>4774</v>
       </c>
       <c r="B4774">
-        <v>707.0274332076451</v>
+        <v>707.0274332076449</v>
       </c>
     </row>
     <row r="4775" spans="1:2">
@@ -38567,7 +38567,7 @@
         <v>4778</v>
       </c>
       <c r="B4778">
-        <v>442.6099499962195</v>
+        <v>442.6099499962193</v>
       </c>
     </row>
     <row r="4779" spans="1:2">
@@ -38711,7 +38711,7 @@
         <v>4796</v>
       </c>
       <c r="B4796">
-        <v>978.8487700687722</v>
+        <v>978.8487700687721</v>
       </c>
     </row>
     <row r="4797" spans="1:2">
@@ -38767,7 +38767,7 @@
         <v>4803</v>
       </c>
       <c r="B4803">
-        <v>404.7006250032971</v>
+        <v>404.700625003297</v>
       </c>
     </row>
     <row r="4804" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>587.9526701995404</v>
+        <v>587.9526701995403</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>794.417113941917</v>
+        <v>794.4171139419169</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>1108.219411736089</v>
+        <v>1108.219411736088</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>1169.824409417897</v>
+        <v>1169.824409417896</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -38879,7 +38879,7 @@
         <v>4817</v>
       </c>
       <c r="B4817">
-        <v>891.0165520661217</v>
+        <v>891.0165520661214</v>
       </c>
     </row>
     <row r="4818" spans="1:2">
@@ -38983,7 +38983,7 @@
         <v>4830</v>
       </c>
       <c r="B4830">
-        <v>412.8125382824045</v>
+        <v>412.8125382824044</v>
       </c>
     </row>
     <row r="4831" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>734.7884115022177</v>
+        <v>734.7884115022176</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39183,7 +39183,7 @@
         <v>4855</v>
       </c>
       <c r="B4855">
-        <v>315.2839477372279</v>
+        <v>315.2839477372278</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>806.7384065493172</v>
+        <v>806.7384065493171</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39343,7 +39343,7 @@
         <v>4875</v>
       </c>
       <c r="B4875">
-        <v>391.471398318124</v>
+        <v>391.4713983181239</v>
       </c>
     </row>
     <row r="4876" spans="1:2">
@@ -39367,7 +39367,7 @@
         <v>4878</v>
       </c>
       <c r="B4878">
-        <v>724.2901965979142</v>
+        <v>724.2901965979141</v>
       </c>
     </row>
     <row r="4879" spans="1:2">
@@ -39447,7 +39447,7 @@
         <v>4888</v>
       </c>
       <c r="B4888">
-        <v>1239.932658136737</v>
+        <v>1239.932658136736</v>
       </c>
     </row>
     <row r="4889" spans="1:2">
@@ -39479,7 +39479,7 @@
         <v>4892</v>
       </c>
       <c r="B4892">
-        <v>938.0002356291152</v>
+        <v>938.0002356291151</v>
       </c>
     </row>
     <row r="4893" spans="1:2">
@@ -39487,7 +39487,7 @@
         <v>4893</v>
       </c>
       <c r="B4893">
-        <v>879.5747656457439</v>
+        <v>879.5747656457438</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39535,7 +39535,7 @@
         <v>4899</v>
       </c>
       <c r="B4899">
-        <v>409.0002702114977</v>
+        <v>409.0002702114976</v>
       </c>
     </row>
     <row r="4900" spans="1:2">
@@ -39695,7 +39695,7 @@
         <v>4919</v>
       </c>
       <c r="B4919">
-        <v>571.4888184606621</v>
+        <v>571.4888184606619</v>
       </c>
     </row>
     <row r="4920" spans="1:2">
@@ -39727,7 +39727,7 @@
         <v>4923</v>
       </c>
       <c r="B4923">
-        <v>446.0259860228561</v>
+        <v>446.025986022856</v>
       </c>
     </row>
     <row r="4924" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>502.8366345832032</v>
+        <v>502.8366345832031</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>820.3257660437345</v>
+        <v>820.3257660437343</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -39903,7 +39903,7 @@
         <v>4945</v>
       </c>
       <c r="B4945">
-        <v>414.195833584886</v>
+        <v>414.1958335848859</v>
       </c>
     </row>
     <row r="4946" spans="1:2">
@@ -39975,7 +39975,7 @@
         <v>4954</v>
       </c>
       <c r="B4954">
-        <v>728.906358527869</v>
+        <v>728.9063585278689</v>
       </c>
     </row>
     <row r="4955" spans="1:2">
@@ -40007,7 +40007,7 @@
         <v>4958</v>
       </c>
       <c r="B4958">
-        <v>908.2895729427439</v>
+        <v>908.2895729427438</v>
       </c>
     </row>
     <row r="4959" spans="1:2">
@@ -40039,7 +40039,7 @@
         <v>4962</v>
       </c>
       <c r="B4962">
-        <v>989.9245107618616</v>
+        <v>989.9245107618615</v>
       </c>
     </row>
     <row r="4963" spans="1:2">
@@ -40095,7 +40095,7 @@
         <v>4969</v>
       </c>
       <c r="B4969">
-        <v>349.8210215166896</v>
+        <v>349.8210215166895</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40103,7 +40103,7 @@
         <v>4970</v>
       </c>
       <c r="B4970">
-        <v>310.6359582924744</v>
+        <v>310.6359582924743</v>
       </c>
     </row>
     <row r="4971" spans="1:2">
@@ -40151,7 +40151,7 @@
         <v>4976</v>
       </c>
       <c r="B4976">
-        <v>257.4172763032723</v>
+        <v>257.4172763032722</v>
       </c>
     </row>
     <row r="4977" spans="1:2">
@@ -40175,7 +40175,7 @@
         <v>4979</v>
       </c>
       <c r="B4979">
-        <v>437.297070286055</v>
+        <v>437.2970702860549</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40199,7 +40199,7 @@
         <v>4982</v>
       </c>
       <c r="B4982">
-        <v>585.8194061091245</v>
+        <v>585.8194061091244</v>
       </c>
     </row>
     <row r="4983" spans="1:2">
@@ -40231,7 +40231,7 @@
         <v>4986</v>
       </c>
       <c r="B4986">
-        <v>916.4343101781814</v>
+        <v>916.4343101781812</v>
       </c>
     </row>
     <row r="4987" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>447.8931416101675</v>
+        <v>447.8931416101674</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40415,7 +40415,7 @@
         <v>5009</v>
       </c>
       <c r="B5009">
-        <v>507.5648668783422</v>
+        <v>507.5648668783421</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40471,7 +40471,7 @@
         <v>5016</v>
       </c>
       <c r="B5016">
-        <v>305.7123648429638</v>
+        <v>305.7123648429637</v>
       </c>
     </row>
     <row r="5017" spans="1:2">
@@ -40623,7 +40623,7 @@
         <v>5035</v>
       </c>
       <c r="B5035">
-        <v>605.4330417667261</v>
+        <v>605.433041766726</v>
       </c>
     </row>
     <row r="5036" spans="1:2">
@@ -40663,7 +40663,7 @@
         <v>5040</v>
       </c>
       <c r="B5040">
-        <v>278.6147235372972</v>
+        <v>278.6147235372971</v>
       </c>
     </row>
     <row r="5041" spans="1:2">
@@ -40815,7 +40815,7 @@
         <v>5059</v>
       </c>
       <c r="B5059">
-        <v>630.9936690794228</v>
+        <v>630.9936690794227</v>
       </c>
     </row>
     <row r="5060" spans="1:2">
@@ -40839,7 +40839,7 @@
         <v>5062</v>
       </c>
       <c r="B5062">
-        <v>426.0854325523381</v>
+        <v>426.085432552338</v>
       </c>
     </row>
     <row r="5063" spans="1:2">
@@ -40959,7 +40959,7 @@
         <v>5077</v>
       </c>
       <c r="B5077">
-        <v>592.1561881070601</v>
+        <v>592.15618810706</v>
       </c>
     </row>
     <row r="5078" spans="1:2">
@@ -41015,7 +41015,7 @@
         <v>5084</v>
       </c>
       <c r="B5084">
-        <v>675.9032889018101</v>
+        <v>675.9032889018099</v>
       </c>
     </row>
     <row r="5085" spans="1:2">
@@ -41111,7 +41111,7 @@
         <v>5096</v>
       </c>
       <c r="B5096">
-        <v>271.835169814152</v>
+        <v>271.8351698141519</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41127,7 +41127,7 @@
         <v>5098</v>
       </c>
       <c r="B5098">
-        <v>554.1214287095908</v>
+        <v>554.1214287095906</v>
       </c>
     </row>
     <row r="5099" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>398.1499011471387</v>
+        <v>398.1499011471386</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41255,7 +41255,7 @@
         <v>5114</v>
       </c>
       <c r="B5114">
-        <v>366.0325390912806</v>
+        <v>366.0325390912805</v>
       </c>
     </row>
     <row r="5115" spans="1:2">
@@ -41359,7 +41359,7 @@
         <v>5127</v>
       </c>
       <c r="B5127">
-        <v>850.671220599846</v>
+        <v>850.6712205998459</v>
       </c>
     </row>
     <row r="5128" spans="1:2">
@@ -41423,7 +41423,7 @@
         <v>5135</v>
       </c>
       <c r="B5135">
-        <v>491.0290955065764</v>
+        <v>491.0290955065763</v>
       </c>
     </row>
     <row r="5136" spans="1:2">
@@ -41559,7 +41559,7 @@
         <v>5152</v>
       </c>
       <c r="B5152">
-        <v>645.5932959413765</v>
+        <v>645.5932959413764</v>
       </c>
     </row>
     <row r="5153" spans="1:2">
@@ -41751,7 +41751,7 @@
         <v>5176</v>
       </c>
       <c r="B5176">
-        <v>867.1441575409231</v>
+        <v>867.1441575409229</v>
       </c>
     </row>
     <row r="5177" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>1309.944603712273</v>
+        <v>1309.944603712272</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41839,7 +41839,7 @@
         <v>5187</v>
       </c>
       <c r="B5187">
-        <v>389.7501921080659</v>
+        <v>389.7501921080658</v>
       </c>
     </row>
     <row r="5188" spans="1:2">
@@ -41943,7 +41943,7 @@
         <v>5200</v>
       </c>
       <c r="B5200">
-        <v>325.0121184874487</v>
+        <v>325.0121184874486</v>
       </c>
     </row>
     <row r="5201" spans="1:2">
@@ -41975,7 +41975,7 @@
         <v>5204</v>
       </c>
       <c r="B5204">
-        <v>426.4873208676545</v>
+        <v>426.4873208676544</v>
       </c>
     </row>
     <row r="5205" spans="1:2">
@@ -41983,7 +41983,7 @@
         <v>5205</v>
       </c>
       <c r="B5205">
-        <v>368.6878799299678</v>
+        <v>368.6878799299677</v>
       </c>
     </row>
     <row r="5206" spans="1:2">
@@ -41991,7 +41991,7 @@
         <v>5206</v>
       </c>
       <c r="B5206">
-        <v>282.7010130293523</v>
+        <v>282.7010130293522</v>
       </c>
     </row>
     <row r="5207" spans="1:2">
@@ -42023,7 +42023,7 @@
         <v>5210</v>
       </c>
       <c r="B5210">
-        <v>105.3519167725142</v>
+        <v>105.3519167725141</v>
       </c>
     </row>
     <row r="5211" spans="1:2">
@@ -42095,7 +42095,7 @@
         <v>5219</v>
       </c>
       <c r="B5219">
-        <v>312.3018619975371</v>
+        <v>312.301861997537</v>
       </c>
     </row>
     <row r="5220" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>352.9279848259539</v>
+        <v>352.9279848259538</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42295,7 +42295,7 @@
         <v>5244</v>
       </c>
       <c r="B5244">
-        <v>401.9784053535873</v>
+        <v>401.9784053535872</v>
       </c>
     </row>
     <row r="5245" spans="1:2">
@@ -42351,7 +42351,7 @@
         <v>5251</v>
       </c>
       <c r="B5251">
-        <v>608.7635860406748</v>
+        <v>608.7635860406747</v>
       </c>
     </row>
     <row r="5252" spans="1:2">
@@ -42455,7 +42455,7 @@
         <v>5264</v>
       </c>
       <c r="B5264">
-        <v>319.6236850635173</v>
+        <v>319.6236850635172</v>
       </c>
     </row>
     <row r="5265" spans="1:2">
@@ -42575,7 +42575,7 @@
         <v>5279</v>
       </c>
       <c r="B5279">
-        <v>294.0731364638401</v>
+        <v>294.07313646384</v>
       </c>
     </row>
     <row r="5280" spans="1:2">
@@ -42599,7 +42599,7 @@
         <v>5282</v>
       </c>
       <c r="B5282">
-        <v>171.1097017650497</v>
+        <v>171.1097017650496</v>
       </c>
     </row>
     <row r="5283" spans="1:2">
@@ -42615,7 +42615,7 @@
         <v>5284</v>
       </c>
       <c r="B5284">
-        <v>135.8082987167592</v>
+        <v>135.8082987167591</v>
       </c>
     </row>
     <row r="5285" spans="1:2">
@@ -42639,7 +42639,7 @@
         <v>5287</v>
       </c>
       <c r="B5287">
-        <v>138.8441952298586</v>
+        <v>138.8441952298585</v>
       </c>
     </row>
     <row r="5288" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>702.2154998238644</v>
+        <v>702.2154998238643</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42759,7 +42759,7 @@
         <v>5302</v>
       </c>
       <c r="B5302">
-        <v>499.3907053106232</v>
+        <v>499.390705310623</v>
       </c>
     </row>
     <row r="5303" spans="1:2">
@@ -42791,7 +42791,7 @@
         <v>5306</v>
       </c>
       <c r="B5306">
-        <v>274.4614966200118</v>
+        <v>274.4614966200117</v>
       </c>
     </row>
     <row r="5307" spans="1:2">
@@ -42975,7 +42975,7 @@
         <v>5329</v>
       </c>
       <c r="B5329">
-        <v>322.940545850671</v>
+        <v>322.9405458506709</v>
       </c>
     </row>
     <row r="5330" spans="1:2">
@@ -43079,7 +43079,7 @@
         <v>5342</v>
       </c>
       <c r="B5342">
-        <v>504.263011328368</v>
+        <v>504.2630113283679</v>
       </c>
     </row>
     <row r="5343" spans="1:2">
@@ -43255,7 +43255,7 @@
         <v>5364</v>
       </c>
       <c r="B5364">
-        <v>576.6167849989831</v>
+        <v>576.616784998983</v>
       </c>
     </row>
     <row r="5365" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>607.1942492428511</v>
+        <v>607.1942492428509</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43447,7 +43447,7 @@
         <v>5388</v>
       </c>
       <c r="B5388">
-        <v>781.0067693548511</v>
+        <v>781.006769354851</v>
       </c>
     </row>
     <row r="5389" spans="1:2">
@@ -43503,7 +43503,7 @@
         <v>5395</v>
       </c>
       <c r="B5395">
-        <v>916.6845928451982</v>
+        <v>916.684592845198</v>
       </c>
     </row>
     <row r="5396" spans="1:2">
@@ -43511,7 +43511,7 @@
         <v>5396</v>
       </c>
       <c r="B5396">
-        <v>802.4244008602222</v>
+        <v>802.424400860222</v>
       </c>
     </row>
     <row r="5397" spans="1:2">
@@ -43527,7 +43527,7 @@
         <v>5398</v>
       </c>
       <c r="B5398">
-        <v>642.0861148217163</v>
+        <v>642.0861148217161</v>
       </c>
     </row>
     <row r="5399" spans="1:2">
@@ -43583,7 +43583,7 @@
         <v>5405</v>
       </c>
       <c r="B5405">
-        <v>597.1791326386769</v>
+        <v>597.1791326386768</v>
       </c>
     </row>
     <row r="5406" spans="1:2">
@@ -43711,7 +43711,7 @@
         <v>5421</v>
       </c>
       <c r="B5421">
-        <v>676.2224432629123</v>
+        <v>676.2224432629122</v>
       </c>
     </row>
     <row r="5422" spans="1:2">
@@ -43839,7 +43839,7 @@
         <v>5437</v>
       </c>
       <c r="B5437">
-        <v>399.9748545048829</v>
+        <v>399.9748545048828</v>
       </c>
     </row>
     <row r="5438" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>476.5033225463654</v>
+        <v>476.5033225463653</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43903,7 +43903,7 @@
         <v>5445</v>
       </c>
       <c r="B5445">
-        <v>451.3853174926484</v>
+        <v>451.3853174926483</v>
       </c>
     </row>
     <row r="5446" spans="1:2">
@@ -43927,7 +43927,7 @@
         <v>5448</v>
       </c>
       <c r="B5448">
-        <v>256.5472070036945</v>
+        <v>256.5472070036944</v>
       </c>
     </row>
     <row r="5449" spans="1:2">
@@ -43935,7 +43935,7 @@
         <v>5449</v>
       </c>
       <c r="B5449">
-        <v>212.0236496605359</v>
+        <v>212.0236496605358</v>
       </c>
     </row>
     <row r="5450" spans="1:2">
@@ -43959,7 +43959,7 @@
         <v>5452</v>
       </c>
       <c r="B5452">
-        <v>180.8018247775152</v>
+        <v>180.8018247775151</v>
       </c>
     </row>
     <row r="5453" spans="1:2">
@@ -44071,7 +44071,7 @@
         <v>5466</v>
       </c>
       <c r="B5466">
-        <v>565.6983208787912</v>
+        <v>565.698320878791</v>
       </c>
     </row>
     <row r="5467" spans="1:2">
@@ -44095,7 +44095,7 @@
         <v>5469</v>
       </c>
       <c r="B5469">
-        <v>396.3039345959225</v>
+        <v>396.3039345959224</v>
       </c>
     </row>
     <row r="5470" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>444.9038170158218</v>
+        <v>444.9038170158217</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44239,7 +44239,7 @@
         <v>5487</v>
       </c>
       <c r="B5487">
-        <v>587.040046985149</v>
+        <v>587.0400469851488</v>
       </c>
     </row>
     <row r="5488" spans="1:2">
@@ -44263,7 +44263,7 @@
         <v>5490</v>
       </c>
       <c r="B5490">
-        <v>948.0235582223718</v>
+        <v>948.0235582223717</v>
       </c>
     </row>
     <row r="5491" spans="1:2">
@@ -44295,7 +44295,7 @@
         <v>5494</v>
       </c>
       <c r="B5494">
-        <v>526.7740908789846</v>
+        <v>526.7740908789845</v>
       </c>
     </row>
     <row r="5495" spans="1:2">
@@ -44303,7 +44303,7 @@
         <v>5495</v>
       </c>
       <c r="B5495">
-        <v>467.1848358010892</v>
+        <v>467.1848358010891</v>
       </c>
     </row>
     <row r="5496" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>392.4942162430521</v>
+        <v>392.4942162430519</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44455,7 +44455,7 @@
         <v>5514</v>
       </c>
       <c r="B5514">
-        <v>874.1195120249978</v>
+        <v>874.1195120249977</v>
       </c>
     </row>
     <row r="5515" spans="1:2">
@@ -44463,7 +44463,7 @@
         <v>5515</v>
       </c>
       <c r="B5515">
-        <v>720.6174303414102</v>
+        <v>720.6174303414101</v>
       </c>
     </row>
     <row r="5516" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>435.1204902961249</v>
+        <v>435.1204902961248</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44759,7 +44759,7 @@
         <v>5552</v>
       </c>
       <c r="B5552">
-        <v>442.4242015719159</v>
+        <v>442.4242015719158</v>
       </c>
     </row>
     <row r="5553" spans="1:2">
@@ -44775,7 +44775,7 @@
         <v>5554</v>
       </c>
       <c r="B5554">
-        <v>639.2782012003019</v>
+        <v>639.2782012003017</v>
       </c>
     </row>
     <row r="5555" spans="1:2">
@@ -44815,7 +44815,7 @@
         <v>5559</v>
       </c>
       <c r="B5559">
-        <v>897.9846090813338</v>
+        <v>897.9846090813337</v>
       </c>
     </row>
     <row r="5560" spans="1:2">
@@ -44847,7 +44847,7 @@
         <v>5563</v>
       </c>
       <c r="B5563">
-        <v>902.3923975028003</v>
+        <v>902.3923975028002</v>
       </c>
     </row>
     <row r="5564" spans="1:2">
@@ -45015,7 +45015,7 @@
         <v>5584</v>
       </c>
       <c r="B5584">
-        <v>598.8127106081753</v>
+        <v>598.8127106081752</v>
       </c>
     </row>
     <row r="5585" spans="1:2">
@@ -45087,7 +45087,7 @@
         <v>5593</v>
       </c>
       <c r="B5593">
-        <v>311.3481209164215</v>
+        <v>311.3481209164214</v>
       </c>
     </row>
     <row r="5594" spans="1:2">
@@ -45183,7 +45183,7 @@
         <v>5605</v>
       </c>
       <c r="B5605">
-        <v>482.2475149041277</v>
+        <v>482.2475149041276</v>
       </c>
     </row>
     <row r="5606" spans="1:2">
@@ -45231,7 +45231,7 @@
         <v>5611</v>
       </c>
       <c r="B5611">
-        <v>535.5251920934123</v>
+        <v>535.5251920934122</v>
       </c>
     </row>
     <row r="5612" spans="1:2">
@@ -45303,7 +45303,7 @@
         <v>5620</v>
       </c>
       <c r="B5620">
-        <v>86.39880755255791</v>
+        <v>86.39880755255788</v>
       </c>
     </row>
     <row r="5621" spans="1:2">
@@ -45391,7 +45391,7 @@
         <v>5631</v>
       </c>
       <c r="B5631">
-        <v>596.1450314787603</v>
+        <v>596.1450314787602</v>
       </c>
     </row>
     <row r="5632" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>613.3071249672495</v>
+        <v>613.3071249672494</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>84.27588886980672</v>
+        <v>84.27588886980671</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>665.5778100676936</v>
+        <v>665.5778100676935</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>147.2404724070687</v>
+        <v>147.2404724070686</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45807,7 +45807,7 @@
         <v>5683</v>
       </c>
       <c r="B5683">
-        <v>709.6976034408884</v>
+        <v>709.6976034408883</v>
       </c>
     </row>
     <row r="5684" spans="1:2">
@@ -45823,7 +45823,7 @@
         <v>5685</v>
       </c>
       <c r="B5685">
-        <v>525.3143040354124</v>
+        <v>525.3143040354123</v>
       </c>
     </row>
     <row r="5686" spans="1:2">
@@ -45855,7 +45855,7 @@
         <v>5689</v>
       </c>
       <c r="B5689">
-        <v>281.9463551047993</v>
+        <v>281.9463551047992</v>
       </c>
     </row>
     <row r="5690" spans="1:2">
@@ -45903,7 +45903,7 @@
         <v>5695</v>
       </c>
       <c r="B5695">
-        <v>129.4707254270192</v>
+        <v>129.4707254270191</v>
       </c>
     </row>
     <row r="5696" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>437.2670891187999</v>
+        <v>437.2670891187998</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>520.2717501205988</v>
+        <v>520.2717501205987</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46079,7 +46079,7 @@
         <v>5717</v>
       </c>
       <c r="B5717">
-        <v>582.6354823451077</v>
+        <v>582.6354823451076</v>
       </c>
     </row>
     <row r="5718" spans="1:2">
@@ -46175,7 +46175,7 @@
         <v>5729</v>
       </c>
       <c r="B5729">
-        <v>674.3385826263973</v>
+        <v>674.3385826263972</v>
       </c>
     </row>
     <row r="5730" spans="1:2">
@@ -46191,7 +46191,7 @@
         <v>5731</v>
       </c>
       <c r="B5731">
-        <v>762.6567124111483</v>
+        <v>762.6567124111482</v>
       </c>
     </row>
     <row r="5732" spans="1:2">
@@ -46199,7 +46199,7 @@
         <v>5732</v>
       </c>
       <c r="B5732">
-        <v>651.3987401462191</v>
+        <v>651.398740146219</v>
       </c>
     </row>
     <row r="5733" spans="1:2">
@@ -46207,7 +46207,7 @@
         <v>5733</v>
       </c>
       <c r="B5733">
-        <v>603.5329127568548</v>
+        <v>603.5329127568547</v>
       </c>
     </row>
     <row r="5734" spans="1:2">
@@ -46231,7 +46231,7 @@
         <v>5736</v>
       </c>
       <c r="B5736">
-        <v>388.1573510129415</v>
+        <v>388.1573510129414</v>
       </c>
     </row>
     <row r="5737" spans="1:2">
@@ -46247,7 +46247,7 @@
         <v>5738</v>
       </c>
       <c r="B5738">
-        <v>293.0209235137342</v>
+        <v>293.0209235137341</v>
       </c>
     </row>
     <row r="5739" spans="1:2">
@@ -46319,7 +46319,7 @@
         <v>5747</v>
       </c>
       <c r="B5747">
-        <v>479.531625588853</v>
+        <v>479.5316255888529</v>
       </c>
     </row>
     <row r="5748" spans="1:2">
@@ -46391,7 +46391,7 @@
         <v>5756</v>
       </c>
       <c r="B5756">
-        <v>695.074530895842</v>
+        <v>695.0745308958419</v>
       </c>
     </row>
     <row r="5757" spans="1:2">
@@ -46487,7 +46487,7 @@
         <v>5768</v>
       </c>
       <c r="B5768">
-        <v>298.9583669143899</v>
+        <v>298.9583669143898</v>
       </c>
     </row>
     <row r="5769" spans="1:2">
@@ -46535,7 +46535,7 @@
         <v>5774</v>
       </c>
       <c r="B5774">
-        <v>520.1074281199318</v>
+        <v>520.1074281199317</v>
       </c>
     </row>
     <row r="5775" spans="1:2">
@@ -46567,7 +46567,7 @@
         <v>5778</v>
       </c>
       <c r="B5778">
-        <v>993.3276516627973</v>
+        <v>993.3276516627971</v>
       </c>
     </row>
     <row r="5779" spans="1:2">
@@ -46591,7 +46591,7 @@
         <v>5781</v>
       </c>
       <c r="B5781">
-        <v>446.4834992213103</v>
+        <v>446.4834992213102</v>
       </c>
     </row>
     <row r="5782" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>91.75245344420017</v>
+        <v>91.75245344420016</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46743,7 +46743,7 @@
         <v>5800</v>
       </c>
       <c r="B5800">
-        <v>705.3006586478524</v>
+        <v>705.3006586478523</v>
       </c>
     </row>
     <row r="5801" spans="1:2">
@@ -46759,7 +46759,7 @@
         <v>5802</v>
       </c>
       <c r="B5802">
-        <v>925.9564812953272</v>
+        <v>925.9564812953271</v>
       </c>
     </row>
     <row r="5803" spans="1:2">
@@ -46911,7 +46911,7 @@
         <v>5821</v>
       </c>
       <c r="B5821">
-        <v>545.3618284350418</v>
+        <v>545.3618284350417</v>
       </c>
     </row>
     <row r="5822" spans="1:2">
@@ -46951,7 +46951,7 @@
         <v>5826</v>
       </c>
       <c r="B5826">
-        <v>973.0544625633986</v>
+        <v>973.0544625633985</v>
       </c>
     </row>
     <row r="5827" spans="1:2">
@@ -46975,7 +46975,7 @@
         <v>5829</v>
       </c>
       <c r="B5829">
-        <v>628.4424856878759</v>
+        <v>628.4424856878758</v>
       </c>
     </row>
     <row r="5830" spans="1:2">
@@ -46983,7 +46983,7 @@
         <v>5830</v>
       </c>
       <c r="B5830">
-        <v>521.2605454286487</v>
+        <v>521.2605454286486</v>
       </c>
     </row>
     <row r="5831" spans="1:2">
@@ -47007,7 +47007,7 @@
         <v>5833</v>
       </c>
       <c r="B5833">
-        <v>338.5070140691683</v>
+        <v>338.5070140691682</v>
       </c>
     </row>
     <row r="5834" spans="1:2">
@@ -47127,7 +47127,7 @@
         <v>5848</v>
       </c>
       <c r="B5848">
-        <v>657.6931440719643</v>
+        <v>657.6931440719642</v>
       </c>
     </row>
     <row r="5849" spans="1:2">
@@ -47575,7 +47575,7 @@
         <v>5904</v>
       </c>
       <c r="B5904">
-        <v>128.5668357295799</v>
+        <v>128.5668357295798</v>
       </c>
     </row>
     <row r="5905" spans="1:2">
@@ -47679,7 +47679,7 @@
         <v>5917</v>
       </c>
       <c r="B5917">
-        <v>330.5503405192399</v>
+        <v>330.5503405192398</v>
       </c>
     </row>
     <row r="5918" spans="1:2">
@@ -47895,7 +47895,7 @@
         <v>5944</v>
       </c>
       <c r="B5944">
-        <v>583.9219469764155</v>
+        <v>583.9219469764154</v>
       </c>
     </row>
     <row r="5945" spans="1:2">
@@ -47903,7 +47903,7 @@
         <v>5945</v>
       </c>
       <c r="B5945">
-        <v>532.8311072634141</v>
+        <v>532.831107263414</v>
       </c>
     </row>
     <row r="5946" spans="1:2">
@@ -48015,7 +48015,7 @@
         <v>5959</v>
       </c>
       <c r="B5959">
-        <v>36.02127637126474</v>
+        <v>36.02127637126473</v>
       </c>
     </row>
     <row r="5960" spans="1:2">
@@ -48263,7 +48263,7 @@
         <v>5990</v>
       </c>
       <c r="B5990">
-        <v>667.927946726719</v>
+        <v>667.9279467267189</v>
       </c>
     </row>
     <row r="5991" spans="1:2">
@@ -48295,7 +48295,7 @@
         <v>5994</v>
       </c>
       <c r="B5994">
-        <v>912.9183369273613</v>
+        <v>912.9183369273612</v>
       </c>
     </row>
     <row r="5995" spans="1:2">
@@ -48415,7 +48415,7 @@
         <v>6009</v>
       </c>
       <c r="B6009">
-        <v>238.5046401937552</v>
+        <v>238.5046401937551</v>
       </c>
     </row>
     <row r="6010" spans="1:2">
@@ -48447,7 +48447,7 @@
         <v>6013</v>
       </c>
       <c r="B6013">
-        <v>464.4065223545797</v>
+        <v>464.4065223545796</v>
       </c>
     </row>
     <row r="6014" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>507.2854529500825</v>
+        <v>507.2854529500823</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48495,7 +48495,7 @@
         <v>6019</v>
       </c>
       <c r="B6019">
-        <v>639.1949690253221</v>
+        <v>639.1949690253219</v>
       </c>
     </row>
     <row r="6020" spans="1:2">
@@ -48519,7 +48519,7 @@
         <v>6022</v>
       </c>
       <c r="B6022">
-        <v>420.990978687288</v>
+        <v>420.9909786872879</v>
       </c>
     </row>
     <row r="6023" spans="1:2">
@@ -48719,7 +48719,7 @@
         <v>6047</v>
       </c>
       <c r="B6047">
-        <v>297.8580610068397</v>
+        <v>297.8580610068396</v>
       </c>
     </row>
     <row r="6048" spans="1:2">
@@ -48743,7 +48743,7 @@
         <v>6050</v>
       </c>
       <c r="B6050">
-        <v>223.9879524357428</v>
+        <v>223.9879524357427</v>
       </c>
     </row>
     <row r="6051" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>364.1079415803915</v>
+        <v>364.1079415803914</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>491.9837744150156</v>
+        <v>491.9837744150155</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49047,7 +49047,7 @@
         <v>6088</v>
       </c>
       <c r="B6088">
-        <v>657.6590306030641</v>
+        <v>657.659030603064</v>
       </c>
     </row>
     <row r="6089" spans="1:2">
@@ -49063,7 +49063,7 @@
         <v>6090</v>
       </c>
       <c r="B6090">
-        <v>862.2563187581293</v>
+        <v>862.2563187581291</v>
       </c>
     </row>
     <row r="6091" spans="1:2">
@@ -49143,7 +49143,7 @@
         <v>6100</v>
       </c>
       <c r="B6100">
-        <v>125.6220579331107</v>
+        <v>125.6220579331106</v>
       </c>
     </row>
     <row r="6101" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>492.3467428963977</v>
+        <v>492.3467428963976</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49775,7 +49775,7 @@
         <v>6179</v>
       </c>
       <c r="B6179">
-        <v>234.4131633443157</v>
+        <v>234.4131633443156</v>
       </c>
     </row>
     <row r="6180" spans="1:2">
@@ -49807,7 +49807,7 @@
         <v>6183</v>
       </c>
       <c r="B6183">
-        <v>419.2894082368202</v>
+        <v>419.2894082368201</v>
       </c>
     </row>
     <row r="6184" spans="1:2">
@@ -49823,7 +49823,7 @@
         <v>6185</v>
       </c>
       <c r="B6185">
-        <v>445.3426615891133</v>
+        <v>445.3426615891132</v>
       </c>
     </row>
     <row r="6186" spans="1:2">
@@ -49863,7 +49863,7 @@
         <v>6190</v>
       </c>
       <c r="B6190">
-        <v>310.5577083251518</v>
+        <v>310.5577083251517</v>
       </c>
     </row>
     <row r="6191" spans="1:2">
@@ -49967,7 +49967,7 @@
         <v>6203</v>
       </c>
       <c r="B6203">
-        <v>396.226768991443</v>
+        <v>396.2267689914429</v>
       </c>
     </row>
     <row r="6204" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>463.2245668556585</v>
+        <v>463.2245668556584</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50223,7 +50223,7 @@
         <v>6235</v>
       </c>
       <c r="B6235">
-        <v>606.6488440399023</v>
+        <v>606.6488440399022</v>
       </c>
     </row>
     <row r="6236" spans="1:2">
@@ -50263,7 +50263,7 @@
         <v>6240</v>
       </c>
       <c r="B6240">
-        <v>306.9444354894961</v>
+        <v>306.944435489496</v>
       </c>
     </row>
     <row r="6241" spans="1:2">
@@ -50407,7 +50407,7 @@
         <v>6258</v>
       </c>
       <c r="B6258">
-        <v>744.7286777631178</v>
+        <v>744.7286777631177</v>
       </c>
     </row>
     <row r="6259" spans="1:2">
@@ -50431,7 +50431,7 @@
         <v>6261</v>
       </c>
       <c r="B6261">
-        <v>327.2449681168018</v>
+        <v>327.2449681168017</v>
       </c>
     </row>
     <row r="6262" spans="1:2">
@@ -50471,7 +50471,7 @@
         <v>6266</v>
       </c>
       <c r="B6266">
-        <v>108.1205881818518</v>
+        <v>108.1205881818517</v>
       </c>
     </row>
     <row r="6267" spans="1:2">
@@ -50479,7 +50479,7 @@
         <v>6267</v>
       </c>
       <c r="B6267">
-        <v>76.55921119343803</v>
+        <v>76.55921119343802</v>
       </c>
     </row>
     <row r="6268" spans="1:2">
@@ -50583,7 +50583,7 @@
         <v>6280</v>
       </c>
       <c r="B6280">
-        <v>790.1121934550205</v>
+        <v>790.1121934550204</v>
       </c>
     </row>
     <row r="6281" spans="1:2">
@@ -50631,7 +50631,7 @@
         <v>6286</v>
       </c>
       <c r="B6286">
-        <v>452.9670805025114</v>
+        <v>452.9670805025113</v>
       </c>
     </row>
     <row r="6287" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>516.0948753012038</v>
+        <v>516.0948753012037</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50767,7 +50767,7 @@
         <v>6303</v>
       </c>
       <c r="B6303">
-        <v>783.9676660584466</v>
+        <v>783.9676660584465</v>
       </c>
     </row>
     <row r="6304" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>589.5431667263555</v>
+        <v>589.5431667263554</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50879,7 +50879,7 @@
         <v>6317</v>
       </c>
       <c r="B6317">
-        <v>63.60010808459907</v>
+        <v>63.60010808459906</v>
       </c>
     </row>
     <row r="6318" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>528.3824061249503</v>
+        <v>528.3824061249502</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -51023,7 +51023,7 @@
         <v>6335</v>
       </c>
       <c r="B6335">
-        <v>105.8094592780723</v>
+        <v>105.8094592780722</v>
       </c>
     </row>
     <row r="6336" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>16.59121162014946</v>
+        <v>16.59121162014945</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51103,7 +51103,7 @@
         <v>6345</v>
       </c>
       <c r="B6345">
-        <v>91.29165785011293</v>
+        <v>91.29165785011291</v>
       </c>
     </row>
     <row r="6346" spans="1:2">
@@ -51175,7 +51175,7 @@
         <v>6354</v>
       </c>
       <c r="B6354">
-        <v>414.0847596612334</v>
+        <v>414.0847596612333</v>
       </c>
     </row>
     <row r="6355" spans="1:2">
@@ -51295,7 +51295,7 @@
         <v>6369</v>
       </c>
       <c r="B6369">
-        <v>47.48062360827891</v>
+        <v>47.4806236082789</v>
       </c>
     </row>
     <row r="6370" spans="1:2">
@@ -51343,7 +51343,7 @@
         <v>6375</v>
       </c>
       <c r="B6375">
-        <v>96.75529330256479</v>
+        <v>96.75529330256478</v>
       </c>
     </row>
     <row r="6376" spans="1:2">
@@ -51407,7 +51407,7 @@
         <v>6383</v>
       </c>
       <c r="B6383">
-        <v>122.7190720667546</v>
+        <v>122.7190720667545</v>
       </c>
     </row>
     <row r="6384" spans="1:2">
@@ -51431,7 +51431,7 @@
         <v>6386</v>
       </c>
       <c r="B6386">
-        <v>51.5848988699767</v>
+        <v>51.58489886997668</v>
       </c>
     </row>
     <row r="6387" spans="1:2">
@@ -51447,7 +51447,7 @@
         <v>6388</v>
       </c>
       <c r="B6388">
-        <v>37.9887179372957</v>
+        <v>37.98871793729569</v>
       </c>
     </row>
     <row r="6389" spans="1:2">
@@ -51455,7 +51455,7 @@
         <v>6389</v>
       </c>
       <c r="B6389">
-        <v>42.13136499008542</v>
+        <v>42.13136499008541</v>
       </c>
     </row>
     <row r="6390" spans="1:2">
@@ -51479,7 +51479,7 @@
         <v>6392</v>
       </c>
       <c r="B6392">
-        <v>22.20828441489247</v>
+        <v>22.20828441489246</v>
       </c>
     </row>
     <row r="6393" spans="1:2">
@@ -51687,7 +51687,7 @@
         <v>6418</v>
       </c>
       <c r="B6418">
-        <v>17.38271443568293</v>
+        <v>17.38271443568292</v>
       </c>
     </row>
     <row r="6419" spans="1:2">
@@ -51767,7 +51767,7 @@
         <v>6428</v>
       </c>
       <c r="B6428">
-        <v>233.6939406390473</v>
+        <v>233.6939406390472</v>
       </c>
     </row>
     <row r="6429" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>79.52392954337775</v>
+        <v>79.52392954337773</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52471,7 +52471,7 @@
         <v>6516</v>
       </c>
       <c r="B6516">
-        <v>240.901521683447</v>
+        <v>240.9015216834469</v>
       </c>
     </row>
     <row r="6517" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>109.0308082137262</v>
+        <v>109.0308082137261</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52591,7 +52591,7 @@
         <v>6531</v>
       </c>
       <c r="B6531">
-        <v>95.57981467359801</v>
+        <v>95.57981467359799</v>
       </c>
     </row>
     <row r="6532" spans="1:2">
@@ -52799,7 +52799,7 @@
         <v>6557</v>
       </c>
       <c r="B6557">
-        <v>74.00907992691981</v>
+        <v>74.0090799269198</v>
       </c>
     </row>
     <row r="6558" spans="1:2">
@@ -52815,7 +52815,7 @@
         <v>6559</v>
       </c>
       <c r="B6559">
-        <v>20.61388418184238</v>
+        <v>20.61388418184237</v>
       </c>
     </row>
     <row r="6560" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>122.7349272099462</v>
+        <v>122.7349272099461</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -53183,7 +53183,7 @@
         <v>6605</v>
       </c>
       <c r="B6605">
-        <v>85.4440114157031</v>
+        <v>85.44401141570309</v>
       </c>
     </row>
     <row r="6606" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>556.2667673267995</v>
+        <v>556.2667673267994</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53271,7 +53271,7 @@
         <v>6616</v>
       </c>
       <c r="B6616">
-        <v>683.1688130212635</v>
+        <v>683.1688130212634</v>
       </c>
     </row>
     <row r="6617" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>436.7403232339101</v>
+        <v>436.7403232339099</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>688.2149101649345</v>
+        <v>688.2149101649344</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -53479,7 +53479,7 @@
         <v>6642</v>
       </c>
       <c r="B6642">
-        <v>701.1207329589449</v>
+        <v>701.1207329589448</v>
       </c>
     </row>
     <row r="6643" spans="1:2">
@@ -53487,7 +53487,7 @@
         <v>6643</v>
       </c>
       <c r="B6643">
-        <v>536.9549684626256</v>
+        <v>536.9549684626255</v>
       </c>
     </row>
     <row r="6644" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>63.38429057172885</v>
+        <v>63.38429057172884</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>504.7424462405141</v>
+        <v>504.742446240514</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53655,7 +53655,7 @@
         <v>6664</v>
       </c>
       <c r="B6664">
-        <v>653.22222814877</v>
+        <v>653.2222281487699</v>
       </c>
     </row>
     <row r="6665" spans="1:2">
@@ -53719,7 +53719,7 @@
         <v>6672</v>
       </c>
       <c r="B6672">
-        <v>277.0561717536961</v>
+        <v>277.056171753696</v>
       </c>
     </row>
     <row r="6673" spans="1:2">
@@ -53751,7 +53751,7 @@
         <v>6676</v>
       </c>
       <c r="B6676">
-        <v>197.5336899812494</v>
+        <v>197.5336899812493</v>
       </c>
     </row>
     <row r="6677" spans="1:2">
@@ -53791,7 +53791,7 @@
         <v>6681</v>
       </c>
       <c r="B6681">
-        <v>29.64242109501891</v>
+        <v>29.6424210950189</v>
       </c>
     </row>
     <row r="6682" spans="1:2">
@@ -53927,7 +53927,7 @@
         <v>6698</v>
       </c>
       <c r="B6698">
-        <v>17.7844122548241</v>
+        <v>17.78441225482409</v>
       </c>
     </row>
     <row r="6699" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>9.419259221919841</v>
+        <v>9.419259221919837</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>9.49214305852453</v>
+        <v>9.492143058524528</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -53991,7 +53991,7 @@
         <v>6706</v>
       </c>
       <c r="B6706">
-        <v>115.2121746398597</v>
+        <v>115.2121746398596</v>
       </c>
     </row>
     <row r="6707" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>181.2117256550285</v>
+        <v>181.2117256550284</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>19.28517629102189</v>
+        <v>19.28517629102188</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54279,7 +54279,7 @@
         <v>6742</v>
       </c>
       <c r="B6742">
-        <v>29.68320193004864</v>
+        <v>29.68320193004863</v>
       </c>
     </row>
     <row r="6743" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>183.4611220752244</v>
+        <v>183.4611220752243</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54471,7 +54471,7 @@
         <v>6766</v>
       </c>
       <c r="B6766">
-        <v>78.42015367472985</v>
+        <v>78.42015367472983</v>
       </c>
     </row>
     <row r="6767" spans="1:2">
@@ -54511,7 +54511,7 @@
         <v>6771</v>
       </c>
       <c r="B6771">
-        <v>9.923936342625835</v>
+        <v>9.923936342625833</v>
       </c>
     </row>
     <row r="6772" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>7.310759634270791</v>
+        <v>7.31075963427079</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>6.77305106293935</v>
+        <v>6.773051062939349</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -54599,7 +54599,7 @@
         <v>6782</v>
       </c>
       <c r="B6782">
-        <v>293.4256253110217</v>
+        <v>293.4256253110216</v>
       </c>
     </row>
     <row r="6783" spans="1:2">
@@ -54607,7 +54607,7 @@
         <v>6783</v>
       </c>
       <c r="B6783">
-        <v>363.0692978193757</v>
+        <v>363.0692978193756</v>
       </c>
     </row>
     <row r="6784" spans="1:2">
@@ -54631,7 +54631,7 @@
         <v>6786</v>
       </c>
       <c r="B6786">
-        <v>451.9844719240876</v>
+        <v>451.9844719240875</v>
       </c>
     </row>
     <row r="6787" spans="1:2">
@@ -54679,7 +54679,7 @@
         <v>6792</v>
       </c>
       <c r="B6792">
-        <v>86.74627257599479</v>
+        <v>86.74627257599478</v>
       </c>
     </row>
     <row r="6793" spans="1:2">
@@ -54687,7 +54687,7 @@
         <v>6793</v>
       </c>
       <c r="B6793">
-        <v>73.77738089446454</v>
+        <v>73.77738089446453</v>
       </c>
     </row>
     <row r="6794" spans="1:2">
@@ -54911,7 +54911,7 @@
         <v>6821</v>
       </c>
       <c r="B6821">
-        <v>42.21849500987943</v>
+        <v>42.21849500987942</v>
       </c>
     </row>
     <row r="6822" spans="1:2">
@@ -54999,7 +54999,7 @@
         <v>6832</v>
       </c>
       <c r="B6832">
-        <v>371.8891828065773</v>
+        <v>371.8891828065772</v>
       </c>
     </row>
     <row r="6833" spans="1:2">
@@ -55015,7 +55015,7 @@
         <v>6834</v>
       </c>
       <c r="B6834">
-        <v>582.3763489327233</v>
+        <v>582.3763489327232</v>
       </c>
     </row>
     <row r="6835" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>54.28326253713944</v>
+        <v>54.28326253713943</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55271,7 +55271,7 @@
         <v>6866</v>
       </c>
       <c r="B6866">
-        <v>97.0207863564881</v>
+        <v>97.02078635648809</v>
       </c>
     </row>
     <row r="6867" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>68.76662811805606</v>
+        <v>68.76662811805605</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55351,7 +55351,7 @@
         <v>6876</v>
       </c>
       <c r="B6876">
-        <v>122.5798340162866</v>
+        <v>122.5798340162865</v>
       </c>
     </row>
     <row r="6877" spans="1:2">
@@ -55407,7 +55407,7 @@
         <v>6883</v>
       </c>
       <c r="B6883">
-        <v>476.1791859776059</v>
+        <v>476.1791859776058</v>
       </c>
     </row>
     <row r="6884" spans="1:2">
@@ -55463,7 +55463,7 @@
         <v>6890</v>
       </c>
       <c r="B6890">
-        <v>70.6571414671488</v>
+        <v>70.65714146714879</v>
       </c>
     </row>
     <row r="6891" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>51.6932472329698</v>
+        <v>51.69324723296979</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55599,7 +55599,7 @@
         <v>6907</v>
       </c>
       <c r="B6907">
-        <v>303.3541306311403</v>
+        <v>303.3541306311402</v>
       </c>
     </row>
     <row r="6908" spans="1:2">
@@ -55623,7 +55623,7 @@
         <v>6910</v>
       </c>
       <c r="B6910">
-        <v>155.243158110067</v>
+        <v>155.2431581100669</v>
       </c>
     </row>
     <row r="6911" spans="1:2">
@@ -55631,7 +55631,7 @@
         <v>6911</v>
       </c>
       <c r="B6911">
-        <v>98.61773044615377</v>
+        <v>98.61773044615376</v>
       </c>
     </row>
     <row r="6912" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>50.81104479239141</v>
+        <v>50.8110447923914</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -56007,7 +56007,7 @@
         <v>6958</v>
       </c>
       <c r="B6958">
-        <v>73.46652044375644</v>
+        <v>73.46652044375642</v>
       </c>
     </row>
     <row r="6959" spans="1:2">
@@ -56199,7 +56199,7 @@
         <v>6982</v>
       </c>
       <c r="B6982">
-        <v>67.33216261222424</v>
+        <v>67.33216261222422</v>
       </c>
     </row>
     <row r="6983" spans="1:2">
@@ -56295,7 +56295,7 @@
         <v>6994</v>
       </c>
       <c r="B6994">
-        <v>93.45115179848906</v>
+        <v>93.45115179848905</v>
       </c>
     </row>
     <row r="6995" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>207.9852333226461</v>
+        <v>207.985233322646</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -56407,7 +56407,7 @@
         <v>7008</v>
       </c>
       <c r="B7008">
-        <v>32.36330727150277</v>
+        <v>32.36330727150276</v>
       </c>
     </row>
     <row r="7009" spans="1:2">
@@ -56423,7 +56423,7 @@
         <v>7010</v>
       </c>
       <c r="B7010">
-        <v>22.7028828225789</v>
+        <v>22.70288282257889</v>
       </c>
     </row>
     <row r="7011" spans="1:2">
@@ -56503,7 +56503,7 @@
         <v>7020</v>
       </c>
       <c r="B7020">
-        <v>217.9212353999336</v>
+        <v>217.9212353999335</v>
       </c>
     </row>
     <row r="7021" spans="1:2">
@@ -56535,7 +56535,7 @@
         <v>7024</v>
       </c>
       <c r="B7024">
-        <v>333.9011389326705</v>
+        <v>333.9011389326704</v>
       </c>
     </row>
     <row r="7025" spans="1:2">
@@ -56583,7 +56583,7 @@
         <v>7030</v>
       </c>
       <c r="B7030">
-        <v>153.924983192376</v>
+        <v>153.9249831923759</v>
       </c>
     </row>
     <row r="7031" spans="1:2">
@@ -56855,7 +56855,7 @@
         <v>7064</v>
       </c>
       <c r="B7064">
-        <v>99.70596182691108</v>
+        <v>99.70596182691106</v>
       </c>
     </row>
     <row r="7065" spans="1:2">
@@ -56863,7 +56863,7 @@
         <v>7065</v>
       </c>
       <c r="B7065">
-        <v>227.2463455506835</v>
+        <v>227.2463455506834</v>
       </c>
     </row>
     <row r="7066" spans="1:2">
@@ -56871,7 +56871,7 @@
         <v>7066</v>
       </c>
       <c r="B7066">
-        <v>307.5578331734143</v>
+        <v>307.5578331734142</v>
       </c>
     </row>
     <row r="7067" spans="1:2">
@@ -57007,7 +57007,7 @@
         <v>7083</v>
       </c>
       <c r="B7083">
-        <v>73.38246766986838</v>
+        <v>73.38246766986836</v>
       </c>
     </row>
     <row r="7084" spans="1:2">
@@ -57247,7 +57247,7 @@
         <v>7113</v>
       </c>
       <c r="B7113">
-        <v>258.7142328777642</v>
+        <v>258.7142328777641</v>
       </c>
     </row>
     <row r="7114" spans="1:2">
@@ -57287,7 +57287,7 @@
         <v>7118</v>
       </c>
       <c r="B7118">
-        <v>643.3641683142145</v>
+        <v>643.3641683142143</v>
       </c>
     </row>
     <row r="7119" spans="1:2">
@@ -57399,7 +57399,7 @@
         <v>7132</v>
       </c>
       <c r="B7132">
-        <v>262.1699214159317</v>
+        <v>262.1699214159316</v>
       </c>
     </row>
     <row r="7133" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>365.9780571851934</v>
+        <v>365.9780571851933</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57631,7 +57631,7 @@
         <v>7161</v>
       </c>
       <c r="B7161">
-        <v>94.05537049747637</v>
+        <v>94.05537049747636</v>
       </c>
     </row>
     <row r="7162" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>62.11658248689534</v>
+        <v>62.11658248689533</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57775,7 +57775,7 @@
         <v>7179</v>
       </c>
       <c r="B7179">
-        <v>10.2024886420319</v>
+        <v>10.20248864203189</v>
       </c>
     </row>
     <row r="7180" spans="1:2">
@@ -57783,7 +57783,7 @@
         <v>7180</v>
       </c>
       <c r="B7180">
-        <v>8.419467888499366</v>
+        <v>8.419467888499364</v>
       </c>
     </row>
     <row r="7181" spans="1:2">
@@ -57879,7 +57879,7 @@
         <v>7192</v>
       </c>
       <c r="B7192">
-        <v>67.06438360419936</v>
+        <v>67.06438360419935</v>
       </c>
     </row>
     <row r="7193" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>6.668351141306546</v>
+        <v>6.668351141306545</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>48.11587559955008</v>
+        <v>48.11587559955007</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>63.48230231918837</v>
+        <v>63.48230231918836</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>104.518276203042</v>
+        <v>104.5182762030419</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58303,7 +58303,7 @@
         <v>7245</v>
       </c>
       <c r="B7245">
-        <v>69.09354886168279</v>
+        <v>69.09354886168278</v>
       </c>
     </row>
     <row r="7246" spans="1:2">
@@ -58311,7 +58311,7 @@
         <v>7246</v>
       </c>
       <c r="B7246">
-        <v>47.5552600096948</v>
+        <v>47.55526000969479</v>
       </c>
     </row>
     <row r="7247" spans="1:2">
@@ -58319,7 +58319,7 @@
         <v>7247</v>
       </c>
       <c r="B7247">
-        <v>25.33147799827792</v>
+        <v>25.33147799827791</v>
       </c>
     </row>
     <row r="7248" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>266.6166296713326</v>
+        <v>266.6166296713325</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58527,7 +58527,7 @@
         <v>7273</v>
       </c>
       <c r="B7273">
-        <v>14.74678955330699</v>
+        <v>14.74678955330698</v>
       </c>
     </row>
     <row r="7274" spans="1:2">
@@ -58639,7 +58639,7 @@
         <v>7287</v>
       </c>
       <c r="B7287">
-        <v>190.4037112171768</v>
+        <v>190.4037112171767</v>
       </c>
     </row>
     <row r="7288" spans="1:2">
@@ -58743,7 +58743,7 @@
         <v>7300</v>
       </c>
       <c r="B7300">
-        <v>5.925204754081161</v>
+        <v>5.92520475408116</v>
       </c>
     </row>
     <row r="7301" spans="1:2">
@@ -58759,7 +58759,7 @@
         <v>7302</v>
       </c>
       <c r="B7302">
-        <v>6.763815808369054</v>
+        <v>6.763815808369053</v>
       </c>
     </row>
     <row r="7303" spans="1:2">
@@ -59119,7 +59119,7 @@
         <v>7347</v>
       </c>
       <c r="B7347">
-        <v>7.526284076102344</v>
+        <v>7.526284076102342</v>
       </c>
     </row>
     <row r="7348" spans="1:2">
@@ -59135,7 +59135,7 @@
         <v>7349</v>
       </c>
       <c r="B7349">
-        <v>6.199982298509266</v>
+        <v>6.199982298509265</v>
       </c>
     </row>
     <row r="7350" spans="1:2">
@@ -59383,7 +59383,7 @@
         <v>7380</v>
       </c>
       <c r="B7380">
-        <v>91.29117428289914</v>
+        <v>91.29117428289912</v>
       </c>
     </row>
     <row r="7381" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>53.81294213429571</v>
+        <v>53.8129421342957</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59575,7 +59575,7 @@
         <v>7404</v>
       </c>
       <c r="B7404">
-        <v>85.49999384550819</v>
+        <v>85.49999384550817</v>
       </c>
     </row>
     <row r="7405" spans="1:2">
@@ -59615,7 +59615,7 @@
         <v>7409</v>
       </c>
       <c r="B7409">
-        <v>37.15381716235726</v>
+        <v>37.15381716235725</v>
       </c>
     </row>
     <row r="7410" spans="1:2">
@@ -59655,7 +59655,7 @@
         <v>7414</v>
       </c>
       <c r="B7414">
-        <v>44.03195998290811</v>
+        <v>44.0319599829081</v>
       </c>
     </row>
     <row r="7415" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>5.310009079340778</v>
+        <v>5.310009079340777</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59783,7 +59783,7 @@
         <v>7430</v>
       </c>
       <c r="B7430">
-        <v>115.6387395366313</v>
+        <v>115.6387395366312</v>
       </c>
     </row>
     <row r="7431" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>63.36802512908315</v>
+        <v>63.36802512908314</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -59839,7 +59839,7 @@
         <v>7437</v>
       </c>
       <c r="B7437">
-        <v>41.82589704648869</v>
+        <v>41.82589704648868</v>
       </c>
     </row>
     <row r="7438" spans="1:2">
@@ -59863,7 +59863,7 @@
         <v>7440</v>
       </c>
       <c r="B7440">
-        <v>9.646143097209908</v>
+        <v>9.646143097209906</v>
       </c>
     </row>
     <row r="7441" spans="1:2">
@@ -59879,7 +59879,7 @@
         <v>7442</v>
       </c>
       <c r="B7442">
-        <v>5.640673805486408</v>
+        <v>5.640673805486407</v>
       </c>
     </row>
     <row r="7443" spans="1:2">
@@ -60063,7 +60063,7 @@
         <v>7465</v>
       </c>
       <c r="B7465">
-        <v>16.19279033522052</v>
+        <v>16.19279033522051</v>
       </c>
     </row>
     <row r="7466" spans="1:2">
@@ -60103,7 +60103,7 @@
         <v>7470</v>
       </c>
       <c r="B7470">
-        <v>7.334855935069526</v>
+        <v>7.334855935069525</v>
       </c>
     </row>
     <row r="7471" spans="1:2">
@@ -60127,7 +60127,7 @@
         <v>7473</v>
       </c>
       <c r="B7473">
-        <v>4.529895590511767</v>
+        <v>4.529895590511766</v>
       </c>
     </row>
     <row r="7474" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>22.06906687939717</v>
+        <v>22.06906687939716</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>77.47620116630551</v>
+        <v>77.4762011663055</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>7.304637380273155</v>
+        <v>7.304637380273154</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>15.50160866693122</v>
+        <v>15.50160866693121</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60511,7 +60511,7 @@
         <v>7521</v>
       </c>
       <c r="B7521">
-        <v>46.90900906234267</v>
+        <v>46.90900906234266</v>
       </c>
     </row>
     <row r="7522" spans="1:2">
@@ -60871,7 +60871,7 @@
         <v>7566</v>
       </c>
       <c r="B7566">
-        <v>5.280844994141511</v>
+        <v>5.28084499414151</v>
       </c>
     </row>
     <row r="7567" spans="1:2">
@@ -60887,7 +60887,7 @@
         <v>7568</v>
       </c>
       <c r="B7568">
-        <v>7.482136147909437</v>
+        <v>7.482136147909436</v>
       </c>
     </row>
     <row r="7569" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>5.374212151780319</v>
+        <v>5.374212151780318</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -61167,7 +61167,7 @@
         <v>7603</v>
       </c>
       <c r="B7603">
-        <v>27.9428083590894</v>
+        <v>27.94280835908939</v>
       </c>
     </row>
     <row r="7604" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>7.297317931082587</v>
+        <v>7.297317931082586</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>23.0378893961623</v>
+        <v>23.03788939616229</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>7.180538793520317</v>
+        <v>7.180538793520316</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>4.481740795078283</v>
+        <v>4.481740795078282</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>6.141247052438029</v>
+        <v>6.141247052438028</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>3.601311434283803</v>
+        <v>3.601311434283802</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -61751,7 +61751,7 @@
         <v>7676</v>
       </c>
       <c r="B7676">
-        <v>16.7537576103222</v>
+        <v>16.75375761032219</v>
       </c>
     </row>
     <row r="7677" spans="1:2">
@@ -61879,7 +61879,7 @@
         <v>7692</v>
       </c>
       <c r="B7692">
-        <v>86.09586001989366</v>
+        <v>86.09586001989365</v>
       </c>
     </row>
     <row r="7693" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>91.41161182623702</v>
+        <v>91.41161182623701</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -62039,7 +62039,7 @@
         <v>7712</v>
       </c>
       <c r="B7712">
-        <v>4.979934305195974</v>
+        <v>4.979934305195973</v>
       </c>
     </row>
     <row r="7713" spans="1:2">
@@ -62071,7 +62071,7 @@
         <v>7716</v>
       </c>
       <c r="B7716">
-        <v>58.99294343553112</v>
+        <v>58.99294343553111</v>
       </c>
     </row>
     <row r="7717" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>9.989352729165434</v>
+        <v>9.989352729165432</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>4.237380800681801</v>
+        <v>4.2373808006818</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62335,7 +62335,7 @@
         <v>7749</v>
       </c>
       <c r="B7749">
-        <v>5.709675916184028</v>
+        <v>5.709675916184027</v>
       </c>
     </row>
     <row r="7750" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>3.137969932083718</v>
+        <v>3.137969932083717</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62447,7 +62447,7 @@
         <v>7763</v>
       </c>
       <c r="B7763">
-        <v>6.598663244378459</v>
+        <v>6.598663244378458</v>
       </c>
     </row>
     <row r="7764" spans="1:2">
@@ -62455,7 +62455,7 @@
         <v>7764</v>
       </c>
       <c r="B7764">
-        <v>0.4343941137268026</v>
+        <v>0.4343941137268025</v>
       </c>
     </row>
     <row r="7765" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>5.367727075836822</v>
+        <v>5.36772707583682</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62887,7 +62887,7 @@
         <v>7818</v>
       </c>
       <c r="B7818">
-        <v>0.2005068956684687</v>
+        <v>0.2005068956684686</v>
       </c>
     </row>
     <row r="7819" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>3.009811432232305</v>
+        <v>3.009811432232304</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>2.683605781939908</v>
+        <v>2.683605781939907</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63047,7 +63047,7 @@
         <v>7838</v>
       </c>
       <c r="B7838">
-        <v>39.15923780428833</v>
+        <v>39.15923780428832</v>
       </c>
     </row>
     <row r="7839" spans="1:2">
@@ -63239,7 +63239,7 @@
         <v>7862</v>
       </c>
       <c r="B7862">
-        <v>61.72117104153345</v>
+        <v>61.72117104153344</v>
       </c>
     </row>
     <row r="7863" spans="1:2">
@@ -63263,7 +63263,7 @@
         <v>7865</v>
       </c>
       <c r="B7865">
-        <v>4.659537322889845</v>
+        <v>4.659537322889844</v>
       </c>
     </row>
     <row r="7866" spans="1:2">
@@ -63287,7 +63287,7 @@
         <v>7868</v>
       </c>
       <c r="B7868">
-        <v>8.345798621511063</v>
+        <v>8.345798621511062</v>
       </c>
     </row>
     <row r="7869" spans="1:2">
@@ -63503,7 +63503,7 @@
         <v>7895</v>
       </c>
       <c r="B7895">
-        <v>6.687197953660779</v>
+        <v>6.687197953660778</v>
       </c>
     </row>
     <row r="7896" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>4.13911027149515</v>
+        <v>4.139110271495149</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>4.281789562099116</v>
+        <v>4.281789562099115</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63735,7 +63735,7 @@
         <v>7924</v>
       </c>
       <c r="B7924">
-        <v>5.460506039901037</v>
+        <v>5.460506039901036</v>
       </c>
     </row>
     <row r="7925" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>5.365302499133976</v>
+        <v>5.365302499133975</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63751,7 +63751,7 @@
         <v>7926</v>
       </c>
       <c r="B7926">
-        <v>6.03091723615254</v>
+        <v>6.030917236152539</v>
       </c>
     </row>
     <row r="7927" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>39.33137014813569</v>
+        <v>39.33137014813568</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>7.347742268639466</v>
+        <v>7.347742268639465</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>38.07966667272347</v>
+        <v>38.07966667272346</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -63927,7 +63927,7 @@
         <v>7948</v>
       </c>
       <c r="B7948">
-        <v>4.364313970520572</v>
+        <v>4.364313970520571</v>
       </c>
     </row>
     <row r="7949" spans="1:2">
@@ -64031,7 +64031,7 @@
         <v>7961</v>
       </c>
       <c r="B7961">
-        <v>9.527461049393608</v>
+        <v>9.527461049393606</v>
       </c>
     </row>
     <row r="7962" spans="1:2">
@@ -64087,7 +64087,7 @@
         <v>7968</v>
       </c>
       <c r="B7968">
-        <v>7.730534075076594</v>
+        <v>7.730534075076593</v>
       </c>
     </row>
     <row r="7969" spans="1:2">
@@ -64095,7 +64095,7 @@
         <v>7969</v>
       </c>
       <c r="B7969">
-        <v>5.868115394963048</v>
+        <v>5.868115394963047</v>
       </c>
     </row>
     <row r="7970" spans="1:2">
@@ -64111,7 +64111,7 @@
         <v>7971</v>
       </c>
       <c r="B7971">
-        <v>4.213630909850763</v>
+        <v>4.213630909850762</v>
       </c>
     </row>
     <row r="7972" spans="1:2">
@@ -64143,7 +64143,7 @@
         <v>7975</v>
       </c>
       <c r="B7975">
-        <v>4.039397539727244</v>
+        <v>4.039397539727243</v>
       </c>
     </row>
     <row r="7976" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>9.996108016606579</v>
+        <v>9.996108016606577</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>4.417482332212435</v>
+        <v>4.417482332212434</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64439,7 +64439,7 @@
         <v>8012</v>
       </c>
       <c r="B8012">
-        <v>7.252536383304095</v>
+        <v>7.252536383304093</v>
       </c>
     </row>
     <row r="8013" spans="1:2">
@@ -64535,7 +64535,7 @@
         <v>8024</v>
       </c>
       <c r="B8024">
-        <v>6.033626384833926</v>
+        <v>6.033626384833925</v>
       </c>
     </row>
     <row r="8025" spans="1:2">
@@ -64591,7 +64591,7 @@
         <v>8031</v>
       </c>
       <c r="B8031">
-        <v>194.678928954305</v>
+        <v>194.6789289543049</v>
       </c>
     </row>
     <row r="8032" spans="1:2">
@@ -64607,7 +64607,7 @@
         <v>8033</v>
       </c>
       <c r="B8033">
-        <v>80.52598631592707</v>
+        <v>80.52598631592706</v>
       </c>
     </row>
     <row r="8034" spans="1:2">
@@ -64783,7 +64783,7 @@
         <v>8055</v>
       </c>
       <c r="B8055">
-        <v>159.9361925734627</v>
+        <v>159.9361925734626</v>
       </c>
     </row>
     <row r="8056" spans="1:2">
@@ -64799,7 +64799,7 @@
         <v>8057</v>
       </c>
       <c r="B8057">
-        <v>53.67326447726971</v>
+        <v>53.6732644772697</v>
       </c>
     </row>
     <row r="8058" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>93.63789666432407</v>
+        <v>93.63789666432405</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>6.199785940913363</v>
+        <v>6.199785940913362</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64991,7 +64991,7 @@
         <v>8081</v>
       </c>
       <c r="B8081">
-        <v>85.73019528495591</v>
+        <v>85.7301952849559</v>
       </c>
     </row>
     <row r="8082" spans="1:2">
@@ -64999,7 +64999,7 @@
         <v>8082</v>
       </c>
       <c r="B8082">
-        <v>42.45584738267048</v>
+        <v>42.45584738267047</v>
       </c>
     </row>
     <row r="8083" spans="1:2">
@@ -65015,7 +65015,7 @@
         <v>8084</v>
       </c>
       <c r="B8084">
-        <v>180.1812468531498</v>
+        <v>180.1812468531497</v>
       </c>
     </row>
     <row r="8085" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>67.40507868664318</v>
+        <v>67.40507868664317</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>17.6408162380112</v>
+        <v>17.64081623801119</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65191,7 +65191,7 @@
         <v>8106</v>
       </c>
       <c r="B8106">
-        <v>76.20740871862895</v>
+        <v>76.20740871862894</v>
       </c>
     </row>
     <row r="8107" spans="1:2">
@@ -65223,7 +65223,7 @@
         <v>8110</v>
       </c>
       <c r="B8110">
-        <v>195.4282383324024</v>
+        <v>195.4282383324023</v>
       </c>
     </row>
     <row r="8111" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>73.49135528357263</v>
+        <v>73.49135528357262</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65663,7 +65663,7 @@
         <v>8165</v>
       </c>
       <c r="B8165">
-        <v>99.61423059181007</v>
+        <v>99.61423059181006</v>
       </c>
     </row>
     <row r="8166" spans="1:2">
@@ -65719,7 +65719,7 @@
         <v>8172</v>
       </c>
       <c r="B8172">
-        <v>296.4377508321753</v>
+        <v>296.4377508321752</v>
       </c>
     </row>
     <row r="8173" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>289.6699492576804</v>
+        <v>289.6699492576803</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>4.6317606359876</v>
+        <v>4.631760635987599</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>26.56157041529925</v>
+        <v>26.56157041529924</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66015,7 +66015,7 @@
         <v>8209</v>
       </c>
       <c r="B8209">
-        <v>8.991803389190721</v>
+        <v>8.99180338919072</v>
       </c>
     </row>
     <row r="8210" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>5.978461037084624</v>
+        <v>5.978461037084623</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>8.185453594838668</v>
+        <v>8.185453594838666</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66343,7 +66343,7 @@
         <v>8250</v>
       </c>
       <c r="B8250">
-        <v>5.639381362205911</v>
+        <v>5.63938136220591</v>
       </c>
     </row>
     <row r="8251" spans="1:2">
@@ -66623,7 +66623,7 @@
         <v>8285</v>
       </c>
       <c r="B8285">
-        <v>3.597850265317212</v>
+        <v>3.597850265317211</v>
       </c>
     </row>
     <row r="8286" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>4.04536007000881</v>
+        <v>4.045360070008809</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66663,7 +66663,7 @@
         <v>8290</v>
       </c>
       <c r="B8290">
-        <v>1.192557018435927</v>
+        <v>1.192557018435926</v>
       </c>
     </row>
     <row r="8291" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>7.237469601206516</v>
+        <v>7.237469601206515</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -66775,7 +66775,7 @@
         <v>8304</v>
       </c>
       <c r="B8304">
-        <v>6.468193586316162</v>
+        <v>6.468193586316161</v>
       </c>
     </row>
     <row r="8305" spans="1:2">
@@ -66783,7 +66783,7 @@
         <v>8305</v>
       </c>
       <c r="B8305">
-        <v>5.252357023828434</v>
+        <v>5.252357023828433</v>
       </c>
     </row>
     <row r="8306" spans="1:2">
@@ -66943,7 +66943,7 @@
         <v>8325</v>
       </c>
       <c r="B8325">
-        <v>8.230542574136717</v>
+        <v>8.230542574136715</v>
       </c>
     </row>
     <row r="8326" spans="1:2">
@@ -66991,7 +66991,7 @@
         <v>8331</v>
       </c>
       <c r="B8331">
-        <v>3.566155511699103</v>
+        <v>3.566155511699102</v>
       </c>
     </row>
     <row r="8332" spans="1:2">
@@ -67047,7 +67047,7 @@
         <v>8338</v>
       </c>
       <c r="B8338">
-        <v>6.995488464430848</v>
+        <v>6.995488464430847</v>
       </c>
     </row>
     <row r="8339" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>92.79059898445024</v>
+        <v>92.79059898445023</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67127,7 +67127,7 @@
         <v>8348</v>
       </c>
       <c r="B8348">
-        <v>11.87832452459482</v>
+        <v>11.87832452459481</v>
       </c>
     </row>
     <row r="8349" spans="1:2">
@@ -67143,7 +67143,7 @@
         <v>8350</v>
       </c>
       <c r="B8350">
-        <v>7.80876938884724</v>
+        <v>7.808769388847239</v>
       </c>
     </row>
     <row r="8351" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>8.855751020912965</v>
+        <v>8.855751020912964</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>38.77870264484891</v>
+        <v>38.7787026448489</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>63.05830765542584</v>
+        <v>63.05830765542583</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67311,7 +67311,7 @@
         <v>8371</v>
       </c>
       <c r="B8371">
-        <v>24.1395873911461</v>
+        <v>24.13958739114609</v>
       </c>
     </row>
     <row r="8372" spans="1:2">
@@ -67343,7 +67343,7 @@
         <v>8375</v>
       </c>
       <c r="B8375">
-        <v>8.980907007973293</v>
+        <v>8.980907007973292</v>
       </c>
     </row>
     <row r="8376" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>5.340227047995072</v>
+        <v>5.340227047995071</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67367,7 +67367,7 @@
         <v>8378</v>
       </c>
       <c r="B8378">
-        <v>4.295286362642587</v>
+        <v>4.295286362642586</v>
       </c>
     </row>
     <row r="8379" spans="1:2">
@@ -67415,7 +67415,7 @@
         <v>8384</v>
       </c>
       <c r="B8384">
-        <v>4.865305722915402</v>
+        <v>4.865305722915401</v>
       </c>
     </row>
     <row r="8385" spans="1:2">
@@ -67511,7 +67511,7 @@
         <v>8396</v>
       </c>
       <c r="B8396">
-        <v>12.63973480587854</v>
+        <v>12.63973480587853</v>
       </c>
     </row>
     <row r="8397" spans="1:2">
@@ -67527,7 +67527,7 @@
         <v>8398</v>
       </c>
       <c r="B8398">
-        <v>8.809885403362465</v>
+        <v>8.809885403362463</v>
       </c>
     </row>
     <row r="8399" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>5.577696063059509</v>
+        <v>5.577696063059508</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67679,7 +67679,7 @@
         <v>8417</v>
       </c>
       <c r="B8417">
-        <v>0.7685265443231846</v>
+        <v>0.7685265443231845</v>
       </c>
     </row>
     <row r="8418" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>4.800778513907101</v>
+        <v>4.800778513907099</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>3.451739698992598</v>
+        <v>3.451739698992597</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67951,7 +67951,7 @@
         <v>8451</v>
       </c>
       <c r="B8451">
-        <v>3.864442628706543</v>
+        <v>3.864442628706542</v>
       </c>
     </row>
     <row r="8452" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>3.906250970797816</v>
+        <v>3.906250970797815</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -68047,7 +68047,7 @@
         <v>8463</v>
       </c>
       <c r="B8463">
-        <v>21.38496287669154</v>
+        <v>21.38496287669153</v>
       </c>
     </row>
     <row r="8464" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>5.32964894192563</v>
+        <v>5.329648941925629</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>7.395090825645593</v>
+        <v>7.395090825645591</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68135,7 +68135,7 @@
         <v>8474</v>
       </c>
       <c r="B8474">
-        <v>6.679220853059457</v>
+        <v>6.679220853059456</v>
       </c>
     </row>
     <row r="8475" spans="1:2">
@@ -68143,7 +68143,7 @@
         <v>8475</v>
       </c>
       <c r="B8475">
-        <v>5.545698567058464</v>
+        <v>5.545698567058463</v>
       </c>
     </row>
     <row r="8476" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>5.11909557105185</v>
+        <v>5.119095571051849</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68175,7 +68175,7 @@
         <v>8479</v>
       </c>
       <c r="B8479">
-        <v>5.706235848332221</v>
+        <v>5.70623584833222</v>
       </c>
     </row>
     <row r="8480" spans="1:2">
@@ -68335,7 +68335,7 @@
         <v>8499</v>
       </c>
       <c r="B8499">
-        <v>6.29356281186422</v>
+        <v>6.293562811864219</v>
       </c>
     </row>
     <row r="8500" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>6.462814267401533</v>
+        <v>6.462814267401532</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>5.95169339376849</v>
+        <v>5.951693393768489</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>13.12756034186151</v>
+        <v>13.1275603418615</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68543,7 +68543,7 @@
         <v>8525</v>
       </c>
       <c r="B8525">
-        <v>10.36017551438364</v>
+        <v>10.36017551438363</v>
       </c>
     </row>
     <row r="8526" spans="1:2">
@@ -68575,7 +68575,7 @@
         <v>8529</v>
       </c>
       <c r="B8529">
-        <v>5.492644503071678</v>
+        <v>5.492644503071677</v>
       </c>
     </row>
     <row r="8530" spans="1:2">
@@ -68615,7 +68615,7 @@
         <v>8534</v>
       </c>
       <c r="B8534">
-        <v>0.9590196129000492</v>
+        <v>0.9590196129000491</v>
       </c>
     </row>
     <row r="8535" spans="1:2">
@@ -68631,7 +68631,7 @@
         <v>8536</v>
       </c>
       <c r="B8536">
-        <v>0.4289982656055932</v>
+        <v>0.4289982656055931</v>
       </c>
     </row>
     <row r="8537" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>0.7206854228223796</v>
+        <v>0.7206854228223795</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>4.321802844078588</v>
+        <v>4.321802844078587</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68855,7 +68855,7 @@
         <v>8564</v>
       </c>
       <c r="B8564">
-        <v>1.900862918366235</v>
+        <v>1.900862918366234</v>
       </c>
     </row>
     <row r="8565" spans="1:2">
@@ -68871,7 +68871,7 @@
         <v>8566</v>
       </c>
       <c r="B8566">
-        <v>3.489358297515168</v>
+        <v>3.489358297515167</v>
       </c>
     </row>
     <row r="8567" spans="1:2">
@@ -68951,7 +68951,7 @@
         <v>8576</v>
       </c>
       <c r="B8576">
-        <v>2.064954828960811</v>
+        <v>2.06495482896081</v>
       </c>
     </row>
     <row r="8577" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>4.814125262078777</v>
+        <v>4.814125262078776</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>1.662738068931481</v>
+        <v>1.66273806893148</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69199,7 +69199,7 @@
         <v>8607</v>
       </c>
       <c r="B8607">
-        <v>52.00579284215019</v>
+        <v>52.00579284215018</v>
       </c>
     </row>
     <row r="8608" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>2.256318171986981</v>
+        <v>2.25631817198698</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69615,7 +69615,7 @@
         <v>8659</v>
       </c>
       <c r="B8659">
-        <v>0.8428934083048127</v>
+        <v>0.8428934083048126</v>
       </c>
     </row>
     <row r="8660" spans="1:2">
@@ -69831,7 +69831,7 @@
         <v>8686</v>
       </c>
       <c r="B8686">
-        <v>7.485715717575647</v>
+        <v>7.485715717575646</v>
       </c>
     </row>
     <row r="8687" spans="1:2">
@@ -69839,7 +69839,7 @@
         <v>8687</v>
       </c>
       <c r="B8687">
-        <v>6.971484774080329</v>
+        <v>6.971484774080327</v>
       </c>
     </row>
     <row r="8688" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>5.141420550492917</v>
+        <v>5.141420550492916</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -70047,7 +70047,7 @@
         <v>8713</v>
       </c>
       <c r="B8713">
-        <v>3.38758644862963</v>
+        <v>3.387586448629629</v>
       </c>
     </row>
     <row r="8714" spans="1:2">
@@ -70207,7 +70207,7 @@
         <v>8733</v>
       </c>
       <c r="B8733">
-        <v>3.370369990463469</v>
+        <v>3.370369990463468</v>
       </c>
     </row>
     <row r="8734" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>2.140628672546454</v>
+        <v>2.140628672546453</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
